--- a/errores.xlsx
+++ b/errores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BSHR\Documents\Bryan\Quifatex\PROYECTO 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\Quifatex\2026\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02319A2B-6462-4340-89BB-14763AA89081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -5049,7 +5050,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5157,13 +5158,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5440,11 +5441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A821" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B834" sqref="B834"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B838" sqref="B838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5470,7 +5471,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5484,7 +5485,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5498,7 +5499,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5512,7 +5513,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5526,7 +5527,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5540,7 +5541,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5554,7 +5555,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5568,7 +5569,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5582,7 +5583,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5596,7 +5597,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5610,7 +5611,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5624,7 +5625,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5638,7 +5639,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>125</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5652,7 +5653,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>141</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5666,7 +5667,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5680,7 +5681,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>160</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5694,7 +5695,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>161</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -5708,7 +5709,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>162</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5722,7 +5723,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5736,7 +5737,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>201</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -5750,7 +5751,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5764,7 +5765,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>205</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5778,7 +5779,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>206</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5792,7 +5793,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>207</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5806,7 +5807,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>212</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5820,7 +5821,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>225</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5834,7 +5835,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>228</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5848,7 +5849,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>234</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5862,7 +5863,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>235</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5876,7 +5877,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>243</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -5890,7 +5891,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>244</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5904,7 +5905,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>245</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -5918,7 +5919,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>246</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -5932,7 +5933,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>247</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -5946,7 +5947,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>248</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -5960,7 +5961,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>249</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -5974,7 +5975,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>250</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -5988,7 +5989,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>251</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -6002,7 +6003,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>252</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -6016,7 +6017,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>287</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -6030,7 +6031,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>288</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -6044,7 +6045,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>296</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -6058,7 +6059,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>297</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -6072,7 +6073,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>298</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -6086,7 +6087,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>299</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -6100,7 +6101,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>301</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -6114,7 +6115,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>303</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -6128,7 +6129,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>304</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -6142,7 +6143,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>305</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -6156,7 +6157,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>306</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -6170,7 +6171,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="4">
         <v>307</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -6184,7 +6185,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>308</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -6198,7 +6199,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>309</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -6212,7 +6213,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>310</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -6226,7 +6227,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="4">
         <v>312</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -6240,7 +6241,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>313</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -6254,7 +6255,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>316</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -6268,7 +6269,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>317</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -6282,7 +6283,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>318</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -6296,7 +6297,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>399</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -6310,7 +6311,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>401</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -6324,7 +6325,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="4">
         <v>403</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -6338,7 +6339,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="4">
         <v>404</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -6352,7 +6353,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="4">
         <v>406</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -6366,7 +6367,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="4">
         <v>410</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -6380,7 +6381,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="4">
         <v>412</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -6394,7 +6395,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="4">
         <v>413</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -6408,7 +6409,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="4">
         <v>416</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -6422,7 +6423,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="4">
         <v>417</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -6436,7 +6437,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="4">
         <v>418</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -6450,7 +6451,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="4">
         <v>419</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -6464,7 +6465,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="4">
         <v>420</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -6478,7 +6479,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="4">
         <v>502</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -6492,7 +6493,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="4">
         <v>503</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -6506,7 +6507,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="4">
         <v>504</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -6520,7 +6521,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="4">
         <v>505</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -6534,7 +6535,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="4">
         <v>506</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -6548,7 +6549,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="4">
         <v>507</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -6562,7 +6563,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="4">
         <v>508</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -6576,7 +6577,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="4">
         <v>509</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -6590,7 +6591,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="4">
         <v>602</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -6604,7 +6605,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="4">
         <v>605</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -6618,7 +6619,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="4">
         <v>607</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -6632,7 +6633,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="4">
         <v>620</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -6646,7 +6647,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="4">
         <v>630</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -6660,7 +6661,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="4">
         <v>701</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -6674,7 +6675,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="4">
         <v>703</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -6688,7 +6689,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="4">
         <v>704</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -6702,7 +6703,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="4">
         <v>705</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -6716,7 +6717,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="4">
         <v>706</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -6730,7 +6731,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="4">
         <v>711</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -6744,7 +6745,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="4">
         <v>712</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -6758,7 +6759,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="4">
         <v>715</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -6772,7 +6773,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="4">
         <v>716</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -6786,7 +6787,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="4">
         <v>717</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -6800,7 +6801,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="4">
         <v>719</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -6814,7 +6815,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="4">
         <v>720</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -6828,7 +6829,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="4">
         <v>722</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -6842,7 +6843,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="4">
         <v>725</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -6856,7 +6857,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="4">
         <v>726</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -6870,7 +6871,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="4">
         <v>730</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -6884,7 +6885,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="4">
         <v>740</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -6898,7 +6899,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="4">
         <v>750</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -6912,7 +6913,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="4">
         <v>751</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -6926,7 +6927,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="4">
         <v>770</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -6940,7 +6941,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="4">
         <v>771</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -6954,7 +6955,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="4">
         <v>772</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -6968,7 +6969,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="A109" s="4">
         <v>773</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -6982,7 +6983,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="4">
         <v>774</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -6996,7 +6997,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="4">
         <v>780</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -7010,7 +7011,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="4">
         <v>781</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -7024,7 +7025,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="A113" s="4">
         <v>782</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -7038,7 +7039,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="4">
         <v>785</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -7052,7 +7053,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="4">
         <v>787</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -7066,7 +7067,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116" s="4">
         <v>788</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -7080,7 +7081,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="A117" s="4">
         <v>791</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -7094,7 +7095,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="4">
         <v>802</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -7108,7 +7109,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="4">
         <v>803</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -7122,7 +7123,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="4">
         <v>808</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -7136,7 +7137,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="A121" s="4">
         <v>809</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -7150,7 +7151,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="4">
         <v>810</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -7164,7 +7165,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="4">
         <v>828</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -7178,7 +7179,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="4">
         <v>839</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -7192,7 +7193,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125" s="4">
         <v>843</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -7206,7 +7207,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126" s="4">
         <v>844</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -7220,7 +7221,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127" s="4">
         <v>845</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -7234,7 +7235,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128" s="4">
         <v>846</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -7248,7 +7249,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="A129" s="4">
         <v>847</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -7262,7 +7263,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="4">
         <v>848</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -7276,7 +7277,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="A131" s="4">
         <v>850</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -7290,7 +7291,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="A132" s="4">
         <v>851</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -7304,7 +7305,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="A133" s="4">
         <v>855</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -7318,7 +7319,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="A134" s="4">
         <v>856</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -7332,7 +7333,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="A135" s="4">
         <v>857</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -7346,7 +7347,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="A136" s="4">
         <v>858</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -7360,7 +7361,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="A137" s="4">
         <v>860</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -7374,7 +7375,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="A138" s="4">
         <v>861</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -7388,7 +7389,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="A139" s="4">
         <v>862</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -7402,7 +7403,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="A140" s="4">
         <v>863</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -7416,7 +7417,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="A141" s="4">
         <v>864</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -7430,7 +7431,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="A142" s="4">
         <v>865</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -7444,7 +7445,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+      <c r="A143" s="4">
         <v>866</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -7458,7 +7459,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+      <c r="A144" s="4">
         <v>867</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -7472,7 +7473,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+      <c r="A145" s="4">
         <v>868</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -7486,7 +7487,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+      <c r="A146" s="4">
         <v>870</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -7500,7 +7501,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+      <c r="A147" s="4">
         <v>871</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -7514,7 +7515,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+      <c r="A148" s="4">
         <v>872</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -7528,7 +7529,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+      <c r="A149" s="4">
         <v>873</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -7542,7 +7543,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+      <c r="A150" s="4">
         <v>874</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -7556,7 +7557,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+      <c r="A151" s="4">
         <v>875</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -7570,7 +7571,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+      <c r="A152" s="4">
         <v>876</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -7584,7 +7585,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+      <c r="A153" s="4">
         <v>877</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -7598,7 +7599,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+      <c r="A154" s="4">
         <v>878</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -7612,7 +7613,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+      <c r="A155" s="4">
         <v>879</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -7626,7 +7627,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+      <c r="A156" s="4">
         <v>880</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -7640,7 +7641,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+      <c r="A157" s="4">
         <v>901</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -7654,7 +7655,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+      <c r="A158" s="4">
         <v>904</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -7668,7 +7669,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+      <c r="A159" s="4">
         <v>909</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -7682,7 +7683,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+      <c r="A160" s="4">
         <v>911</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -7696,7 +7697,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+      <c r="A161" s="4">
         <v>912</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -7710,7 +7711,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+      <c r="A162" s="4">
         <v>913</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -7724,7 +7725,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+      <c r="A163" s="4">
         <v>917</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -7738,7 +7739,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+      <c r="A164" s="4">
         <v>918</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -7752,7 +7753,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+      <c r="A165" s="4">
         <v>919</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -7766,7 +7767,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+      <c r="A166" s="4">
         <v>920</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -7780,7 +7781,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+      <c r="A167" s="4">
         <v>1920</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -7794,7 +7795,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+      <c r="A168" s="4">
         <v>1921</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -7808,7 +7809,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+      <c r="A169" s="4">
         <v>1922</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -7822,7 +7823,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+      <c r="A170" s="4">
         <v>1923</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -7836,7 +7837,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+      <c r="A171" s="4">
         <v>1924</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -7850,7 +7851,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+      <c r="A172" s="4">
         <v>1925</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -7864,7 +7865,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+      <c r="A173" s="4">
         <v>1926</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -7878,7 +7879,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
+      <c r="A174" s="4">
         <v>1927</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -7892,7 +7893,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
+      <c r="A175" s="4">
         <v>1928</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -7906,7 +7907,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
+      <c r="A176" s="4">
         <v>1929</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -7920,7 +7921,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
+      <c r="A177" s="4">
         <v>1930</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -7934,7 +7935,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
+      <c r="A178" s="4">
         <v>1931</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -7948,7 +7949,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
+      <c r="A179" s="4">
         <v>1932</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -7962,7 +7963,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
+      <c r="A180" s="4">
         <v>1933</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -7976,7 +7977,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
+      <c r="A181" s="4">
         <v>1934</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -7990,7 +7991,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
+      <c r="A182" s="4">
         <v>1935</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -8004,7 +8005,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
+      <c r="A183" s="4">
         <v>1936</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -8018,7 +8019,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
+      <c r="A184" s="4">
         <v>1937</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -8032,7 +8033,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
+      <c r="A185" s="4">
         <v>1938</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -8046,7 +8047,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
+      <c r="A186" s="4">
         <v>1939</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -8060,7 +8061,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
+      <c r="A187" s="4">
         <v>1940</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -8074,7 +8075,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
+      <c r="A188" s="4">
         <v>1941</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -8088,7 +8089,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
+      <c r="A189" s="4">
         <v>1942</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -8102,7 +8103,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
+      <c r="A190" s="4">
         <v>1943</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -8116,7 +8117,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
+      <c r="A191" s="4">
         <v>1944</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -8130,7 +8131,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
+      <c r="A192" s="4">
         <v>1945</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -8144,7 +8145,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="2">
+      <c r="A193" s="4">
         <v>1946</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -8158,7 +8159,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="2">
+      <c r="A194" s="4">
         <v>1947</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -8172,7 +8173,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="2">
+      <c r="A195" s="4">
         <v>1948</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -8186,7 +8187,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A196" s="2">
+      <c r="A196" s="4">
         <v>1949</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -8200,7 +8201,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A197" s="2">
+      <c r="A197" s="4">
         <v>1950</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -8214,7 +8215,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A198" s="2">
+      <c r="A198" s="4">
         <v>1951</v>
       </c>
       <c r="B198" s="3" t="s">
@@ -8228,7 +8229,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
+      <c r="A199" s="4">
         <v>1952</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -8242,7 +8243,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
+      <c r="A200" s="4">
         <v>1953</v>
       </c>
       <c r="B200" s="3" t="s">
@@ -8256,7 +8257,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
+      <c r="A201" s="4">
         <v>1954</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -8270,7 +8271,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="2">
+      <c r="A202" s="4">
         <v>1956</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -8284,7 +8285,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="2">
+      <c r="A203" s="4">
         <v>1957</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -8298,7 +8299,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="2">
+      <c r="A204" s="4">
         <v>1958</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -8312,7 +8313,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="2">
+      <c r="A205" s="4">
         <v>1959</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -8326,7 +8327,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A206" s="2">
+      <c r="A206" s="4">
         <v>1960</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -8340,7 +8341,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="2">
+      <c r="A207" s="4">
         <v>1964</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -8354,7 +8355,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="2">
+      <c r="A208" s="4">
         <v>1965</v>
       </c>
       <c r="B208" s="3" t="s">
@@ -8368,7 +8369,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
+      <c r="A209" s="4">
         <v>1966</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -8382,7 +8383,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A210" s="2">
+      <c r="A210" s="4">
         <v>1967</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -8396,7 +8397,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="2">
+      <c r="A211" s="4">
         <v>1968</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -8410,7 +8411,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A212" s="2">
+      <c r="A212" s="4">
         <v>1969</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -8424,7 +8425,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="2">
+      <c r="A213" s="4">
         <v>1970</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -8438,7 +8439,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="2">
+      <c r="A214" s="4">
         <v>1971</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -8452,7 +8453,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="2">
+      <c r="A215" s="4">
         <v>1972</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -8466,7 +8467,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="2">
+      <c r="A216" s="4">
         <v>1973</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -8480,7 +8481,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="2">
+      <c r="A217" s="4">
         <v>1974</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -8494,7 +8495,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A218" s="2">
+      <c r="A218" s="4">
         <v>1975</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -8508,7 +8509,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="2">
+      <c r="A219" s="4">
         <v>1976</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -8522,7 +8523,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A220" s="2">
+      <c r="A220" s="4">
         <v>1977</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -8536,7 +8537,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="2">
+      <c r="A221" s="4">
         <v>1978</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -8550,7 +8551,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A222" s="2">
+      <c r="A222" s="4">
         <v>1979</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -8564,7 +8565,7 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="2">
+      <c r="A223" s="4">
         <v>2100</v>
       </c>
       <c r="B223" s="5" t="s">
@@ -8578,7 +8579,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A224" s="2">
+      <c r="A224" s="4">
         <v>2101</v>
       </c>
       <c r="B224" s="5" t="s">
@@ -8592,7 +8593,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="2">
+      <c r="A225" s="4">
         <v>2102</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -8606,7 +8607,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A226" s="2">
+      <c r="A226" s="4">
         <v>2890</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -8620,7 +8621,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A227" s="2">
+      <c r="A227" s="4">
         <v>2906</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -8634,7 +8635,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A228" s="2">
+      <c r="A228" s="4">
         <v>2907</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -8648,7 +8649,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A229" s="2">
+      <c r="A229" s="4">
         <v>2910</v>
       </c>
       <c r="B229" s="3" t="s">
@@ -8662,7 +8663,7 @@
       </c>
     </row>
     <row r="230" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A230" s="2">
+      <c r="A230" s="4">
         <v>2911</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -8676,7 +8677,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A231" s="2">
+      <c r="A231" s="4">
         <v>2912</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -8690,7 +8691,7 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="2">
+      <c r="A232" s="4">
         <v>2913</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -8704,7 +8705,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A233" s="2">
+      <c r="A233" s="4">
         <v>2914</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -8718,7 +8719,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A234" s="2">
+      <c r="A234" s="4">
         <v>2916</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -8732,7 +8733,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A235" s="2">
+      <c r="A235" s="4">
         <v>3001</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -8746,7 +8747,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A236" s="2">
+      <c r="A236" s="4">
         <v>3002</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -8760,7 +8761,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A237" s="2">
+      <c r="A237" s="4">
         <v>3003</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -8774,7 +8775,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A238" s="2">
+      <c r="A238" s="4">
         <v>3004</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -8788,7 +8789,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A239" s="2">
+      <c r="A239" s="4">
         <v>3005</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -8802,7 +8803,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A240" s="2">
+      <c r="A240" s="4">
         <v>3006</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -8816,7 +8817,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A241" s="2">
+      <c r="A241" s="4">
         <v>3007</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -8830,7 +8831,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A242" s="2">
+      <c r="A242" s="4">
         <v>3008</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -8844,7 +8845,7 @@
       </c>
     </row>
     <row r="243" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A243" s="2">
+      <c r="A243" s="4">
         <v>3009</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -8858,7 +8859,7 @@
       </c>
     </row>
     <row r="244" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A244" s="2">
+      <c r="A244" s="4">
         <v>3010</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -8872,7 +8873,7 @@
       </c>
     </row>
     <row r="245" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A245" s="2">
+      <c r="A245" s="4">
         <v>3011</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -8886,7 +8887,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A246" s="2">
+      <c r="A246" s="4">
         <v>3012</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -8900,7 +8901,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="2">
+      <c r="A247" s="4">
         <v>3013</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -8914,7 +8915,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A248" s="2">
+      <c r="A248" s="4">
         <v>3014</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -8928,7 +8929,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A249" s="2">
+      <c r="A249" s="4">
         <v>3015</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -8942,7 +8943,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A250" s="2">
+      <c r="A250" s="4">
         <v>3016</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -8956,7 +8957,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A251" s="2">
+      <c r="A251" s="4">
         <v>3017</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -8970,7 +8971,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A252" s="2">
+      <c r="A252" s="4">
         <v>3018</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -8984,7 +8985,7 @@
       </c>
     </row>
     <row r="253" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A253" s="2">
+      <c r="A253" s="4">
         <v>3019</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -8998,7 +8999,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A254" s="2">
+      <c r="A254" s="4">
         <v>3020</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -9012,7 +9013,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A255" s="2">
+      <c r="A255" s="4">
         <v>3021</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -9026,7 +9027,7 @@
       </c>
     </row>
     <row r="256" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A256" s="2">
+      <c r="A256" s="4">
         <v>3022</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -9040,7 +9041,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A257" s="2">
+      <c r="A257" s="4">
         <v>3023</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -9054,7 +9055,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A258" s="2">
+      <c r="A258" s="4">
         <v>3024</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -9068,7 +9069,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A259" s="2">
+      <c r="A259" s="4">
         <v>3025</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -9082,7 +9083,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A260" s="2">
+      <c r="A260" s="4">
         <v>3026</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -9096,7 +9097,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A261" s="2">
+      <c r="A261" s="4">
         <v>3027</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -9110,7 +9111,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A262" s="2">
+      <c r="A262" s="4">
         <v>3028</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -9124,7 +9125,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A263" s="2">
+      <c r="A263" s="4">
         <v>3029</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -9138,7 +9139,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A264" s="2">
+      <c r="A264" s="4">
         <v>3030</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -9152,7 +9153,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A265" s="2">
+      <c r="A265" s="4">
         <v>3031</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -9166,7 +9167,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A266" s="2">
+      <c r="A266" s="4">
         <v>3032</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -9180,7 +9181,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A267" s="2">
+      <c r="A267" s="4">
         <v>3033</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -9194,7 +9195,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A268" s="2">
+      <c r="A268" s="4">
         <v>3034</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -9208,7 +9209,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A269" s="2">
+      <c r="A269" s="4">
         <v>3035</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -9222,7 +9223,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A270" s="2">
+      <c r="A270" s="4">
         <v>3036</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -9236,7 +9237,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A271" s="2">
+      <c r="A271" s="4">
         <v>3037</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -9250,7 +9251,7 @@
       </c>
     </row>
     <row r="272" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A272" s="2">
+      <c r="A272" s="4">
         <v>3038</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -9264,7 +9265,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A273" s="2">
+      <c r="A273" s="4">
         <v>3039</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -9278,7 +9279,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A274" s="2">
+      <c r="A274" s="4">
         <v>3040</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -9292,7 +9293,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A275" s="2">
+      <c r="A275" s="4">
         <v>3041</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -9306,7 +9307,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A276" s="2">
+      <c r="A276" s="4">
         <v>3042</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -9320,7 +9321,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A277" s="2">
+      <c r="A277" s="4">
         <v>3043</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -9334,7 +9335,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A278" s="2">
+      <c r="A278" s="4">
         <v>3044</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -9348,7 +9349,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A279" s="2">
+      <c r="A279" s="4">
         <v>3045</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -9362,7 +9363,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A280" s="2">
+      <c r="A280" s="4">
         <v>3046</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -9376,7 +9377,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A281" s="2">
+      <c r="A281" s="4">
         <v>3047</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -9390,7 +9391,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A282" s="2">
+      <c r="A282" s="4">
         <v>3048</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -9404,7 +9405,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A283" s="2">
+      <c r="A283" s="4">
         <v>3049</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -9418,7 +9419,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A284" s="2">
+      <c r="A284" s="4">
         <v>3050</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -9684,7 +9685,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A303" s="2" t="s">
+      <c r="A303" s="4" t="s">
         <v>1121</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -9698,7 +9699,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A304" s="2" t="s">
+      <c r="A304" s="4" t="s">
         <v>1129</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -9712,7 +9713,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="2" t="s">
+      <c r="A305" s="4" t="s">
         <v>1139</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -9726,7 +9727,7 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
+      <c r="A306" s="4" t="s">
         <v>1140</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -9740,7 +9741,7 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="4" t="s">
         <v>1141</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -9754,7 +9755,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="4" t="s">
         <v>1142</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -9768,7 +9769,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="4" t="s">
         <v>1143</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -9782,7 +9783,7 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
+      <c r="A310" s="4" t="s">
         <v>1144</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -9796,7 +9797,7 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="4" t="s">
         <v>1145</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -9810,7 +9811,7 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="2" t="s">
+      <c r="A312" s="4" t="s">
         <v>1146</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -9824,7 +9825,7 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" s="2" t="s">
+      <c r="A313" s="4" t="s">
         <v>1147</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -9838,7 +9839,7 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="4" t="s">
         <v>1148</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -9852,7 +9853,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
+      <c r="A315" s="4" t="s">
         <v>1149</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -9866,7 +9867,7 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="2" t="s">
+      <c r="A316" s="4" t="s">
         <v>1150</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -9880,7 +9881,7 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="4" t="s">
         <v>1151</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -9894,7 +9895,7 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="2" t="s">
+      <c r="A318" s="4" t="s">
         <v>1152</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -9908,7 +9909,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="4" t="s">
         <v>1153</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -9922,7 +9923,7 @@
       </c>
     </row>
     <row r="320" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A320" s="2" t="s">
+      <c r="A320" s="4" t="s">
         <v>1257</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -9936,7 +9937,7 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="4" t="s">
         <v>1258</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -9950,7 +9951,7 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" s="2" t="s">
+      <c r="A322" s="4" t="s">
         <v>1259</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -9964,7 +9965,7 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="4" t="s">
         <v>1154</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -9978,7 +9979,7 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" s="2" t="s">
+      <c r="A324" s="4" t="s">
         <v>1155</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -9992,7 +9993,7 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="2" t="s">
+      <c r="A325" s="4" t="s">
         <v>1156</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -10006,7 +10007,7 @@
       </c>
     </row>
     <row r="326" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A326" s="2" t="s">
+      <c r="A326" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -10020,7 +10021,7 @@
       </c>
     </row>
     <row r="327" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
+      <c r="A327" s="4" t="s">
         <v>1158</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -10034,7 +10035,7 @@
       </c>
     </row>
     <row r="328" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="4" t="s">
         <v>1260</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -10048,7 +10049,7 @@
       </c>
     </row>
     <row r="329" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
+      <c r="A329" s="4" t="s">
         <v>1261</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -10062,7 +10063,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A330" s="2" t="s">
+      <c r="A330" s="4" t="s">
         <v>1262</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -10076,7 +10077,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
+      <c r="A331" s="4" t="s">
         <v>1263</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -10090,7 +10091,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
+      <c r="A332" s="4" t="s">
         <v>1264</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -10104,7 +10105,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
+      <c r="A333" s="4" t="s">
         <v>1265</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -10118,7 +10119,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A334" s="2" t="s">
+      <c r="A334" s="4" t="s">
         <v>1266</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -10132,7 +10133,7 @@
       </c>
     </row>
     <row r="335" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
+      <c r="A335" s="4" t="s">
         <v>1267</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -10146,7 +10147,7 @@
       </c>
     </row>
     <row r="336" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A336" s="2" t="s">
+      <c r="A336" s="4" t="s">
         <v>1268</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -10160,7 +10161,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="4" t="s">
         <v>1269</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -10174,7 +10175,7 @@
       </c>
     </row>
     <row r="338" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A338" s="2" t="s">
+      <c r="A338" s="4" t="s">
         <v>1270</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -10188,7 +10189,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
+      <c r="A339" s="4" t="s">
         <v>1271</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -10202,7 +10203,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A340" s="2" t="s">
+      <c r="A340" s="4" t="s">
         <v>1272</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -10216,7 +10217,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A341" s="2" t="s">
+      <c r="A341" s="4" t="s">
         <v>1273</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -10230,7 +10231,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="4" t="s">
         <v>1274</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -10244,7 +10245,7 @@
       </c>
     </row>
     <row r="343" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
+      <c r="A343" s="4" t="s">
         <v>1275</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -10258,7 +10259,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="4" t="s">
         <v>1276</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -10272,7 +10273,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A345" s="2" t="s">
+      <c r="A345" s="4" t="s">
         <v>1509</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -10286,7 +10287,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A346" s="2" t="s">
+      <c r="A346" s="4" t="s">
         <v>1277</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -10300,7 +10301,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A347" s="2" t="s">
+      <c r="A347" s="4" t="s">
         <v>1513</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -10314,7 +10315,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A348" s="2" t="s">
+      <c r="A348" s="4" t="s">
         <v>1278</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -10328,7 +10329,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="4" t="s">
         <v>1512</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -10342,7 +10343,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A350" s="2" t="s">
+      <c r="A350" s="4" t="s">
         <v>1279</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -10356,7 +10357,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A351" s="2" t="s">
+      <c r="A351" s="4" t="s">
         <v>1510</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -10370,7 +10371,7 @@
       </c>
     </row>
     <row r="352" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
+      <c r="A352" s="4" t="s">
         <v>1280</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -10384,7 +10385,7 @@
       </c>
     </row>
     <row r="353" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A353" s="2" t="s">
+      <c r="A353" s="4" t="s">
         <v>1511</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -10398,7 +10399,7 @@
       </c>
     </row>
     <row r="354" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="4" t="s">
         <v>1281</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -10412,7 +10413,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A355" s="2" t="s">
+      <c r="A355" s="4" t="s">
         <v>1514</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -10426,7 +10427,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A356" s="2" t="s">
+      <c r="A356" s="4" t="s">
         <v>1282</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -10440,7 +10441,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A357" s="2" t="s">
+      <c r="A357" s="4" t="s">
         <v>1515</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -10454,7 +10455,7 @@
       </c>
     </row>
     <row r="358" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A358" s="2" t="s">
+      <c r="A358" s="4" t="s">
         <v>1283</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -10468,7 +10469,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="4" t="s">
         <v>1284</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -10482,7 +10483,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A360" s="2" t="s">
+      <c r="A360" s="4" t="s">
         <v>1516</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -10496,7 +10497,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A361" s="2" t="s">
+      <c r="A361" s="4" t="s">
         <v>1285</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -10510,7 +10511,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -10524,7 +10525,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="4" t="s">
         <v>1286</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -10538,7 +10539,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="4" t="s">
         <v>1518</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -10552,7 +10553,7 @@
       </c>
     </row>
     <row r="365" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="4" t="s">
         <v>1287</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -10566,7 +10567,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A366" s="2" t="s">
+      <c r="A366" s="4" t="s">
         <v>1519</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -10580,7 +10581,7 @@
       </c>
     </row>
     <row r="367" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A367" s="2" t="s">
+      <c r="A367" s="4" t="s">
         <v>1288</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -10594,7 +10595,7 @@
       </c>
     </row>
     <row r="368" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A368" s="2" t="s">
+      <c r="A368" s="4" t="s">
         <v>1520</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -10608,7 +10609,7 @@
       </c>
     </row>
     <row r="369" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A369" s="2" t="s">
+      <c r="A369" s="4" t="s">
         <v>1289</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -10622,7 +10623,7 @@
       </c>
     </row>
     <row r="370" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A370" s="2" t="s">
+      <c r="A370" s="4" t="s">
         <v>1521</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -10636,7 +10637,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="4" t="s">
         <v>1290</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -10650,7 +10651,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A372" s="2" t="s">
+      <c r="A372" s="4" t="s">
         <v>1291</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -10664,7 +10665,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="4" t="s">
         <v>1292</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -10678,7 +10679,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A374" s="2" t="s">
+      <c r="A374" s="4" t="s">
         <v>1293</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -10692,7 +10693,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A375" s="2" t="s">
+      <c r="A375" s="4" t="s">
         <v>1294</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -10706,7 +10707,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="4" t="s">
         <v>1295</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -10720,7 +10721,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A377" s="2" t="s">
+      <c r="A377" s="4" t="s">
         <v>1296</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -10734,7 +10735,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="4" t="s">
         <v>1297</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -10748,7 +10749,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="4" t="s">
         <v>1298</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -10762,7 +10763,7 @@
       </c>
     </row>
     <row r="380" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="4" t="s">
         <v>1299</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -10776,7 +10777,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A381" s="2" t="s">
+      <c r="A381" s="4" t="s">
         <v>1300</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -10790,7 +10791,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A382" s="2" t="s">
+      <c r="A382" s="4" t="s">
         <v>1301</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -10804,7 +10805,7 @@
       </c>
     </row>
     <row r="383" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="4" t="s">
         <v>1302</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -10818,7 +10819,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A384" s="2" t="s">
+      <c r="A384" s="4" t="s">
         <v>1303</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -10832,7 +10833,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A385" s="2" t="s">
+      <c r="A385" s="4" t="s">
         <v>1304</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -10846,7 +10847,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="4" t="s">
         <v>1305</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -10860,7 +10861,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="4" t="s">
         <v>1306</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -10874,7 +10875,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="4" t="s">
         <v>1307</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -10888,7 +10889,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="4" t="s">
         <v>1308</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -10902,7 +10903,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A390" s="2" t="s">
+      <c r="A390" s="4" t="s">
         <v>1309</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -10916,7 +10917,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="4" t="s">
         <v>1310</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -10930,7 +10931,7 @@
       </c>
     </row>
     <row r="392" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A392" s="2" t="s">
+      <c r="A392" s="4" t="s">
         <v>1522</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -10944,7 +10945,7 @@
       </c>
     </row>
     <row r="393" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A393" s="2" t="s">
+      <c r="A393" s="4" t="s">
         <v>1311</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -10958,7 +10959,7 @@
       </c>
     </row>
     <row r="394" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A394" s="2" t="s">
+      <c r="A394" s="4" t="s">
         <v>1312</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -10972,7 +10973,7 @@
       </c>
     </row>
     <row r="395" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="4" t="s">
         <v>1313</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -10986,7 +10987,7 @@
       </c>
     </row>
     <row r="396" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A396" s="2" t="s">
+      <c r="A396" s="4" t="s">
         <v>1314</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -11000,7 +11001,7 @@
       </c>
     </row>
     <row r="397" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A397" s="2" t="s">
+      <c r="A397" s="4" t="s">
         <v>1315</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -11014,7 +11015,7 @@
       </c>
     </row>
     <row r="398" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A398" s="2" t="s">
+      <c r="A398" s="4" t="s">
         <v>1316</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -11028,7 +11029,7 @@
       </c>
     </row>
     <row r="399" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A399" s="2" t="s">
+      <c r="A399" s="4" t="s">
         <v>1317</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -11042,7 +11043,7 @@
       </c>
     </row>
     <row r="400" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A400" s="2" t="s">
+      <c r="A400" s="4" t="s">
         <v>1318</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -11056,7 +11057,7 @@
       </c>
     </row>
     <row r="401" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="2" t="s">
+      <c r="A401" s="4" t="s">
         <v>1319</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -11070,7 +11071,7 @@
       </c>
     </row>
     <row r="402" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A402" s="2" t="s">
+      <c r="A402" s="4" t="s">
         <v>1320</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -11084,7 +11085,7 @@
       </c>
     </row>
     <row r="403" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="4" t="s">
         <v>1523</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -11098,7 +11099,7 @@
       </c>
     </row>
     <row r="404" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="4" t="s">
         <v>1321</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -11112,7 +11113,7 @@
       </c>
     </row>
     <row r="405" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="4" t="s">
         <v>1322</v>
       </c>
       <c r="B405" s="2" t="s">
@@ -11126,7 +11127,7 @@
       </c>
     </row>
     <row r="406" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A406" s="2" t="s">
+      <c r="A406" s="4" t="s">
         <v>1323</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -11140,7 +11141,7 @@
       </c>
     </row>
     <row r="407" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A407" s="2" t="s">
+      <c r="A407" s="4" t="s">
         <v>1324</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -11154,7 +11155,7 @@
       </c>
     </row>
     <row r="408" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A408" s="2" t="s">
+      <c r="A408" s="4" t="s">
         <v>1325</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -11168,7 +11169,7 @@
       </c>
     </row>
     <row r="409" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A409" s="2" t="s">
+      <c r="A409" s="4" t="s">
         <v>1326</v>
       </c>
       <c r="B409" s="2" t="s">
@@ -11182,7 +11183,7 @@
       </c>
     </row>
     <row r="410" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A410" s="2" t="s">
+      <c r="A410" s="4" t="s">
         <v>1327</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -11196,7 +11197,7 @@
       </c>
     </row>
     <row r="411" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A411" s="2" t="s">
+      <c r="A411" s="4" t="s">
         <v>1328</v>
       </c>
       <c r="B411" s="2" t="s">
@@ -11210,7 +11211,7 @@
       </c>
     </row>
     <row r="412" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A412" s="2" t="s">
+      <c r="A412" s="4" t="s">
         <v>1329</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -11224,7 +11225,7 @@
       </c>
     </row>
     <row r="413" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A413" s="2" t="s">
+      <c r="A413" s="4" t="s">
         <v>1330</v>
       </c>
       <c r="B413" s="2" t="s">
@@ -11238,7 +11239,7 @@
       </c>
     </row>
     <row r="414" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A414" s="2" t="s">
+      <c r="A414" s="4" t="s">
         <v>1331</v>
       </c>
       <c r="B414" s="2" t="s">
@@ -11252,7 +11253,7 @@
       </c>
     </row>
     <row r="415" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="4" t="s">
         <v>1332</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -11266,7 +11267,7 @@
       </c>
     </row>
     <row r="416" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="4" t="s">
         <v>1333</v>
       </c>
       <c r="B416" s="2" t="s">
@@ -11280,7 +11281,7 @@
       </c>
     </row>
     <row r="417" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="2" t="s">
+      <c r="A417" s="4" t="s">
         <v>1334</v>
       </c>
       <c r="B417" s="2" t="s">
@@ -11294,7 +11295,7 @@
       </c>
     </row>
     <row r="418" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="4" t="s">
         <v>1335</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -11308,7 +11309,7 @@
       </c>
     </row>
     <row r="419" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="4" t="s">
         <v>1524</v>
       </c>
       <c r="B419" s="2" t="s">
@@ -11322,7 +11323,7 @@
       </c>
     </row>
     <row r="420" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A420" s="2" t="s">
+      <c r="A420" s="4" t="s">
         <v>1337</v>
       </c>
       <c r="B420" s="2" t="s">
@@ -11336,7 +11337,7 @@
       </c>
     </row>
     <row r="421" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A421" s="2" t="s">
+      <c r="A421" s="4" t="s">
         <v>1525</v>
       </c>
       <c r="B421" s="2" t="s">
@@ -11350,7 +11351,7 @@
       </c>
     </row>
     <row r="422" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A422" s="2" t="s">
+      <c r="A422" s="4" t="s">
         <v>1338</v>
       </c>
       <c r="B422" s="2" t="s">
@@ -11364,7 +11365,7 @@
       </c>
     </row>
     <row r="423" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="4" t="s">
         <v>1526</v>
       </c>
       <c r="B423" s="2" t="s">
@@ -11378,7 +11379,7 @@
       </c>
     </row>
     <row r="424" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="4" t="s">
         <v>1339</v>
       </c>
       <c r="B424" s="2" t="s">
@@ -11392,7 +11393,7 @@
       </c>
     </row>
     <row r="425" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="4" t="s">
         <v>1340</v>
       </c>
       <c r="B425" s="2" t="s">
@@ -11406,7 +11407,7 @@
       </c>
     </row>
     <row r="426" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A426" s="2" t="s">
+      <c r="A426" s="4" t="s">
         <v>1527</v>
       </c>
       <c r="B426" s="2" t="s">
@@ -11420,7 +11421,7 @@
       </c>
     </row>
     <row r="427" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A427" s="2" t="s">
+      <c r="A427" s="4" t="s">
         <v>1528</v>
       </c>
       <c r="B427" s="2" t="s">
@@ -11434,7 +11435,7 @@
       </c>
     </row>
     <row r="428" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A428" s="2" t="s">
+      <c r="A428" s="4" t="s">
         <v>1529</v>
       </c>
       <c r="B428" s="2" t="s">
@@ -11448,7 +11449,7 @@
       </c>
     </row>
     <row r="429" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A429" s="2" t="s">
+      <c r="A429" s="4" t="s">
         <v>1341</v>
       </c>
       <c r="B429" s="2" t="s">
@@ -11462,7 +11463,7 @@
       </c>
     </row>
     <row r="430" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A430" s="2" t="s">
+      <c r="A430" s="4" t="s">
         <v>1342</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -11476,7 +11477,7 @@
       </c>
     </row>
     <row r="431" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A431" s="2" t="s">
+      <c r="A431" s="4" t="s">
         <v>1343</v>
       </c>
       <c r="B431" s="2" t="s">
@@ -11490,7 +11491,7 @@
       </c>
     </row>
     <row r="432" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A432" s="2" t="s">
+      <c r="A432" s="4" t="s">
         <v>1530</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -11504,7 +11505,7 @@
       </c>
     </row>
     <row r="433" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A433" s="2" t="s">
+      <c r="A433" s="4" t="s">
         <v>1531</v>
       </c>
       <c r="B433" s="2" t="s">
@@ -11518,7 +11519,7 @@
       </c>
     </row>
     <row r="434" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A434" s="2" t="s">
+      <c r="A434" s="4" t="s">
         <v>1532</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -11532,7 +11533,7 @@
       </c>
     </row>
     <row r="435" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="4" t="s">
         <v>1533</v>
       </c>
       <c r="B435" s="2" t="s">
@@ -11546,7 +11547,7 @@
       </c>
     </row>
     <row r="436" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A436" s="2" t="s">
+      <c r="A436" s="4" t="s">
         <v>1534</v>
       </c>
       <c r="B436" s="2" t="s">
@@ -11560,7 +11561,7 @@
       </c>
     </row>
     <row r="437" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A437" s="2" t="s">
+      <c r="A437" s="4" t="s">
         <v>1535</v>
       </c>
       <c r="B437" s="2" t="s">
@@ -11574,7 +11575,7 @@
       </c>
     </row>
     <row r="438" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A438" s="2" t="s">
+      <c r="A438" s="4" t="s">
         <v>1536</v>
       </c>
       <c r="B438" s="2" t="s">
@@ -11588,7 +11589,7 @@
       </c>
     </row>
     <row r="439" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A439" s="2" t="s">
+      <c r="A439" s="4" t="s">
         <v>1537</v>
       </c>
       <c r="B439" s="2" t="s">
@@ -11602,7 +11603,7 @@
       </c>
     </row>
     <row r="440" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A440" s="2" t="s">
+      <c r="A440" s="4" t="s">
         <v>1538</v>
       </c>
       <c r="B440" s="2" t="s">
@@ -11616,7 +11617,7 @@
       </c>
     </row>
     <row r="441" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A441" s="2" t="s">
+      <c r="A441" s="4" t="s">
         <v>1539</v>
       </c>
       <c r="B441" s="2" t="s">
@@ -11630,7 +11631,7 @@
       </c>
     </row>
     <row r="442" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A442" s="2" t="s">
+      <c r="A442" s="4" t="s">
         <v>1540</v>
       </c>
       <c r="B442" s="2" t="s">
@@ -11644,7 +11645,7 @@
       </c>
     </row>
     <row r="443" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="4" t="s">
         <v>1344</v>
       </c>
       <c r="B443" s="2" t="s">
@@ -11658,7 +11659,7 @@
       </c>
     </row>
     <row r="444" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A444" s="2" t="s">
+      <c r="A444" s="4" t="s">
         <v>1345</v>
       </c>
       <c r="B444" s="2" t="s">
@@ -11672,7 +11673,7 @@
       </c>
     </row>
     <row r="445" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="4" t="s">
         <v>1541</v>
       </c>
       <c r="B445" s="2" t="s">
@@ -11686,7 +11687,7 @@
       </c>
     </row>
     <row r="446" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A446" s="2" t="s">
+      <c r="A446" s="4" t="s">
         <v>1542</v>
       </c>
       <c r="B446" s="2" t="s">
@@ -11700,7 +11701,7 @@
       </c>
     </row>
     <row r="447" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A447" s="2" t="s">
+      <c r="A447" s="4" t="s">
         <v>1346</v>
       </c>
       <c r="B447" s="2" t="s">
@@ -11714,7 +11715,7 @@
       </c>
     </row>
     <row r="448" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="4" t="s">
         <v>1347</v>
       </c>
       <c r="B448" s="2" t="s">
@@ -11728,7 +11729,7 @@
       </c>
     </row>
     <row r="449" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A449" s="2" t="s">
+      <c r="A449" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="B449" s="2" t="s">
@@ -11742,7 +11743,7 @@
       </c>
     </row>
     <row r="450" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A450" s="2" t="s">
+      <c r="A450" s="4" t="s">
         <v>1349</v>
       </c>
       <c r="B450" s="2" t="s">
@@ -11756,7 +11757,7 @@
       </c>
     </row>
     <row r="451" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="4" t="s">
         <v>1350</v>
       </c>
       <c r="B451" s="2" t="s">
@@ -11770,7 +11771,7 @@
       </c>
     </row>
     <row r="452" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A452" s="2" t="s">
+      <c r="A452" s="4" t="s">
         <v>1351</v>
       </c>
       <c r="B452" s="2" t="s">
@@ -11784,7 +11785,7 @@
       </c>
     </row>
     <row r="453" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A453" s="2" t="s">
+      <c r="A453" s="4" t="s">
         <v>1352</v>
       </c>
       <c r="B453" s="2" t="s">
@@ -11798,7 +11799,7 @@
       </c>
     </row>
     <row r="454" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A454" s="2" t="s">
+      <c r="A454" s="4" t="s">
         <v>1353</v>
       </c>
       <c r="B454" s="2" t="s">
@@ -11812,7 +11813,7 @@
       </c>
     </row>
     <row r="455" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A455" s="2" t="s">
+      <c r="A455" s="4" t="s">
         <v>1354</v>
       </c>
       <c r="B455" s="2" t="s">
@@ -11826,7 +11827,7 @@
       </c>
     </row>
     <row r="456" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="4" t="s">
         <v>1355</v>
       </c>
       <c r="B456" s="2" t="s">
@@ -11840,7 +11841,7 @@
       </c>
     </row>
     <row r="457" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A457" s="2" t="s">
+      <c r="A457" s="4" t="s">
         <v>1356</v>
       </c>
       <c r="B457" s="2" t="s">
@@ -11854,7 +11855,7 @@
       </c>
     </row>
     <row r="458" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A458" s="2" t="s">
+      <c r="A458" s="4" t="s">
         <v>1357</v>
       </c>
       <c r="B458" s="2" t="s">
@@ -11868,7 +11869,7 @@
       </c>
     </row>
     <row r="459" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A459" s="2" t="s">
+      <c r="A459" s="4" t="s">
         <v>1358</v>
       </c>
       <c r="B459" s="2" t="s">
@@ -11882,7 +11883,7 @@
       </c>
     </row>
     <row r="460" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A460" s="2" t="s">
+      <c r="A460" s="4" t="s">
         <v>1359</v>
       </c>
       <c r="B460" s="2" t="s">
@@ -11896,7 +11897,7 @@
       </c>
     </row>
     <row r="461" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A461" s="2" t="s">
+      <c r="A461" s="4" t="s">
         <v>1360</v>
       </c>
       <c r="B461" s="2" t="s">
@@ -11910,7 +11911,7 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A462" s="2" t="s">
+      <c r="A462" s="4" t="s">
         <v>1361</v>
       </c>
       <c r="B462" s="2" t="s">
@@ -11924,7 +11925,7 @@
       </c>
     </row>
     <row r="463" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A463" s="2" t="s">
+      <c r="A463" s="4" t="s">
         <v>1362</v>
       </c>
       <c r="B463" s="2" t="s">
@@ -11938,7 +11939,7 @@
       </c>
     </row>
     <row r="464" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A464" s="2" t="s">
+      <c r="A464" s="4" t="s">
         <v>1363</v>
       </c>
       <c r="B464" s="2" t="s">
@@ -11952,7 +11953,7 @@
       </c>
     </row>
     <row r="465" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A465" s="2" t="s">
+      <c r="A465" s="4" t="s">
         <v>1364</v>
       </c>
       <c r="B465" s="2" t="s">
@@ -11966,7 +11967,7 @@
       </c>
     </row>
     <row r="466" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A466" s="2" t="s">
+      <c r="A466" s="4" t="s">
         <v>1365</v>
       </c>
       <c r="B466" s="2" t="s">
@@ -11980,7 +11981,7 @@
       </c>
     </row>
     <row r="467" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="4" t="s">
         <v>1366</v>
       </c>
       <c r="B467" s="2" t="s">
@@ -11994,7 +11995,7 @@
       </c>
     </row>
     <row r="468" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A468" s="2" t="s">
+      <c r="A468" s="4" t="s">
         <v>1367</v>
       </c>
       <c r="B468" s="2" t="s">
@@ -12008,7 +12009,7 @@
       </c>
     </row>
     <row r="469" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A469" s="2" t="s">
+      <c r="A469" s="4" t="s">
         <v>1368</v>
       </c>
       <c r="B469" s="2" t="s">
@@ -12022,7 +12023,7 @@
       </c>
     </row>
     <row r="470" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="4" t="s">
         <v>1369</v>
       </c>
       <c r="B470" s="2" t="s">
@@ -12036,7 +12037,7 @@
       </c>
     </row>
     <row r="471" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="4" t="s">
         <v>1370</v>
       </c>
       <c r="B471" s="2" t="s">
@@ -12050,7 +12051,7 @@
       </c>
     </row>
     <row r="472" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="4" t="s">
         <v>1371</v>
       </c>
       <c r="B472" s="2" t="s">
@@ -12064,7 +12065,7 @@
       </c>
     </row>
     <row r="473" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A473" s="2" t="s">
+      <c r="A473" s="4" t="s">
         <v>1372</v>
       </c>
       <c r="B473" s="2" t="s">
@@ -12078,7 +12079,7 @@
       </c>
     </row>
     <row r="474" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A474" s="2" t="s">
+      <c r="A474" s="4" t="s">
         <v>1373</v>
       </c>
       <c r="B474" s="2" t="s">
@@ -12092,7 +12093,7 @@
       </c>
     </row>
     <row r="475" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="4" t="s">
         <v>1374</v>
       </c>
       <c r="B475" s="2" t="s">
@@ -12106,7 +12107,7 @@
       </c>
     </row>
     <row r="476" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A476" s="2" t="s">
+      <c r="A476" s="4" t="s">
         <v>1375</v>
       </c>
       <c r="B476" s="2" t="s">
@@ -12120,7 +12121,7 @@
       </c>
     </row>
     <row r="477" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A477" s="2" t="s">
+      <c r="A477" s="4" t="s">
         <v>1376</v>
       </c>
       <c r="B477" s="2" t="s">
@@ -12134,7 +12135,7 @@
       </c>
     </row>
     <row r="478" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A478" s="2" t="s">
+      <c r="A478" s="4" t="s">
         <v>1377</v>
       </c>
       <c r="B478" s="2" t="s">
@@ -12148,7 +12149,7 @@
       </c>
     </row>
     <row r="479" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A479" s="2" t="s">
+      <c r="A479" s="4" t="s">
         <v>1378</v>
       </c>
       <c r="B479" s="2" t="s">
@@ -12162,7 +12163,7 @@
       </c>
     </row>
     <row r="480" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A480" s="2" t="s">
+      <c r="A480" s="4" t="s">
         <v>1379</v>
       </c>
       <c r="B480" s="2" t="s">
@@ -12176,7 +12177,7 @@
       </c>
     </row>
     <row r="481" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A481" s="2" t="s">
+      <c r="A481" s="4" t="s">
         <v>1380</v>
       </c>
       <c r="B481" s="2" t="s">
@@ -12190,7 +12191,7 @@
       </c>
     </row>
     <row r="482" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A482" s="2" t="s">
+      <c r="A482" s="4" t="s">
         <v>1381</v>
       </c>
       <c r="B482" s="2" t="s">
@@ -12204,7 +12205,7 @@
       </c>
     </row>
     <row r="483" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A483" s="2" t="s">
+      <c r="A483" s="4" t="s">
         <v>1382</v>
       </c>
       <c r="B483" s="2" t="s">
@@ -12218,7 +12219,7 @@
       </c>
     </row>
     <row r="484" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A484" s="2" t="s">
+      <c r="A484" s="4" t="s">
         <v>1383</v>
       </c>
       <c r="B484" s="2" t="s">
@@ -12232,7 +12233,7 @@
       </c>
     </row>
     <row r="485" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A485" s="2" t="s">
+      <c r="A485" s="4" t="s">
         <v>1384</v>
       </c>
       <c r="B485" s="2" t="s">
@@ -12246,7 +12247,7 @@
       </c>
     </row>
     <row r="486" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A486" s="2" t="s">
+      <c r="A486" s="4" t="s">
         <v>1385</v>
       </c>
       <c r="B486" s="2" t="s">
@@ -12260,7 +12261,7 @@
       </c>
     </row>
     <row r="487" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A487" s="2" t="s">
+      <c r="A487" s="4" t="s">
         <v>1386</v>
       </c>
       <c r="B487" s="2" t="s">
@@ -12274,7 +12275,7 @@
       </c>
     </row>
     <row r="488" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A488" s="2" t="s">
+      <c r="A488" s="4" t="s">
         <v>1387</v>
       </c>
       <c r="B488" s="2" t="s">
@@ -12288,7 +12289,7 @@
       </c>
     </row>
     <row r="489" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A489" s="2" t="s">
+      <c r="A489" s="4" t="s">
         <v>1388</v>
       </c>
       <c r="B489" s="2" t="s">
@@ -12302,7 +12303,7 @@
       </c>
     </row>
     <row r="490" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A490" s="2" t="s">
+      <c r="A490" s="4" t="s">
         <v>1389</v>
       </c>
       <c r="B490" s="2" t="s">
@@ -12316,7 +12317,7 @@
       </c>
     </row>
     <row r="491" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A491" s="2" t="s">
+      <c r="A491" s="4" t="s">
         <v>1390</v>
       </c>
       <c r="B491" s="2" t="s">
@@ -12330,7 +12331,7 @@
       </c>
     </row>
     <row r="492" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A492" s="2" t="s">
+      <c r="A492" s="4" t="s">
         <v>1391</v>
       </c>
       <c r="B492" s="2" t="s">
@@ -12344,7 +12345,7 @@
       </c>
     </row>
     <row r="493" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A493" s="2" t="s">
+      <c r="A493" s="4" t="s">
         <v>1392</v>
       </c>
       <c r="B493" s="2" t="s">
@@ -12358,7 +12359,7 @@
       </c>
     </row>
     <row r="494" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A494" s="2" t="s">
+      <c r="A494" s="4" t="s">
         <v>1393</v>
       </c>
       <c r="B494" s="2" t="s">
@@ -12372,7 +12373,7 @@
       </c>
     </row>
     <row r="495" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A495" s="2" t="s">
+      <c r="A495" s="4" t="s">
         <v>1394</v>
       </c>
       <c r="B495" s="2" t="s">
@@ -12386,7 +12387,7 @@
       </c>
     </row>
     <row r="496" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A496" s="2" t="s">
+      <c r="A496" s="4" t="s">
         <v>1395</v>
       </c>
       <c r="B496" s="2" t="s">
@@ -12400,7 +12401,7 @@
       </c>
     </row>
     <row r="497" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A497" s="2" t="s">
+      <c r="A497" s="4" t="s">
         <v>1396</v>
       </c>
       <c r="B497" s="2" t="s">
@@ -12414,7 +12415,7 @@
       </c>
     </row>
     <row r="498" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A498" s="2" t="s">
+      <c r="A498" s="4" t="s">
         <v>1397</v>
       </c>
       <c r="B498" s="2" t="s">
@@ -12428,7 +12429,7 @@
       </c>
     </row>
     <row r="499" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A499" s="2" t="s">
+      <c r="A499" s="4" t="s">
         <v>1543</v>
       </c>
       <c r="B499" s="2" t="s">
@@ -12442,7 +12443,7 @@
       </c>
     </row>
     <row r="500" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A500" s="2" t="s">
+      <c r="A500" s="4" t="s">
         <v>1398</v>
       </c>
       <c r="B500" s="2" t="s">
@@ -12456,7 +12457,7 @@
       </c>
     </row>
     <row r="501" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A501" s="2" t="s">
+      <c r="A501" s="4" t="s">
         <v>1399</v>
       </c>
       <c r="B501" s="2" t="s">
@@ -12470,7 +12471,7 @@
       </c>
     </row>
     <row r="502" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A502" s="2" t="s">
+      <c r="A502" s="4" t="s">
         <v>1400</v>
       </c>
       <c r="B502" s="2" t="s">
@@ -12484,7 +12485,7 @@
       </c>
     </row>
     <row r="503" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A503" s="2" t="s">
+      <c r="A503" s="4" t="s">
         <v>1401</v>
       </c>
       <c r="B503" s="2" t="s">
@@ -12498,7 +12499,7 @@
       </c>
     </row>
     <row r="504" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A504" s="2" t="s">
+      <c r="A504" s="4" t="s">
         <v>1402</v>
       </c>
       <c r="B504" s="2" t="s">
@@ -12512,7 +12513,7 @@
       </c>
     </row>
     <row r="505" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A505" s="2" t="s">
+      <c r="A505" s="4" t="s">
         <v>1403</v>
       </c>
       <c r="B505" s="2" t="s">
@@ -12526,7 +12527,7 @@
       </c>
     </row>
     <row r="506" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A506" s="2" t="s">
+      <c r="A506" s="4" t="s">
         <v>1404</v>
       </c>
       <c r="B506" s="2" t="s">
@@ -12540,7 +12541,7 @@
       </c>
     </row>
     <row r="507" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A507" s="2" t="s">
+      <c r="A507" s="4" t="s">
         <v>1405</v>
       </c>
       <c r="B507" s="2" t="s">
@@ -12554,7 +12555,7 @@
       </c>
     </row>
     <row r="508" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A508" s="2" t="s">
+      <c r="A508" s="4" t="s">
         <v>1406</v>
       </c>
       <c r="B508" s="2" t="s">
@@ -12568,7 +12569,7 @@
       </c>
     </row>
     <row r="509" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A509" s="2" t="s">
+      <c r="A509" s="4" t="s">
         <v>1407</v>
       </c>
       <c r="B509" s="2" t="s">
@@ -12582,7 +12583,7 @@
       </c>
     </row>
     <row r="510" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A510" s="2" t="s">
+      <c r="A510" s="4" t="s">
         <v>1408</v>
       </c>
       <c r="B510" s="2" t="s">
@@ -12596,7 +12597,7 @@
       </c>
     </row>
     <row r="511" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A511" s="2" t="s">
+      <c r="A511" s="4" t="s">
         <v>1409</v>
       </c>
       <c r="B511" s="2" t="s">
@@ -12610,7 +12611,7 @@
       </c>
     </row>
     <row r="512" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A512" s="2" t="s">
+      <c r="A512" s="4" t="s">
         <v>1410</v>
       </c>
       <c r="B512" s="2" t="s">
@@ -12624,7 +12625,7 @@
       </c>
     </row>
     <row r="513" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A513" s="2" t="s">
+      <c r="A513" s="4" t="s">
         <v>1544</v>
       </c>
       <c r="B513" s="2" t="s">
@@ -12638,7 +12639,7 @@
       </c>
     </row>
     <row r="514" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A514" s="2" t="s">
+      <c r="A514" s="4" t="s">
         <v>1545</v>
       </c>
       <c r="B514" s="2" t="s">
@@ -12652,7 +12653,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A515" s="2" t="s">
+      <c r="A515" s="4" t="s">
         <v>1546</v>
       </c>
       <c r="B515" s="2" t="s">
@@ -12666,7 +12667,7 @@
       </c>
     </row>
     <row r="516" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A516" s="2" t="s">
+      <c r="A516" s="4" t="s">
         <v>1412</v>
       </c>
       <c r="B516" s="2" t="s">
@@ -12680,7 +12681,7 @@
       </c>
     </row>
     <row r="517" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A517" s="2" t="s">
+      <c r="A517" s="4" t="s">
         <v>1547</v>
       </c>
       <c r="B517" s="2" t="s">
@@ -12694,7 +12695,7 @@
       </c>
     </row>
     <row r="518" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A518" s="2" t="s">
+      <c r="A518" s="4" t="s">
         <v>1411</v>
       </c>
       <c r="B518" s="2" t="s">
@@ -12708,7 +12709,7 @@
       </c>
     </row>
     <row r="519" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A519" s="2" t="s">
+      <c r="A519" s="4" t="s">
         <v>1548</v>
       </c>
       <c r="B519" s="2" t="s">
@@ -12722,7 +12723,7 @@
       </c>
     </row>
     <row r="520" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A520" s="2" t="s">
+      <c r="A520" s="4" t="s">
         <v>1549</v>
       </c>
       <c r="B520" s="2" t="s">
@@ -12736,7 +12737,7 @@
       </c>
     </row>
     <row r="521" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A521" s="2" t="s">
+      <c r="A521" s="4" t="s">
         <v>1550</v>
       </c>
       <c r="B521" s="2" t="s">
@@ -12750,7 +12751,7 @@
       </c>
     </row>
     <row r="522" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A522" s="2" t="s">
+      <c r="A522" s="4" t="s">
         <v>1551</v>
       </c>
       <c r="B522" s="2" t="s">
@@ -12764,7 +12765,7 @@
       </c>
     </row>
     <row r="523" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A523" s="2" t="s">
+      <c r="A523" s="4" t="s">
         <v>1413</v>
       </c>
       <c r="B523" s="2" t="s">
@@ -12778,7 +12779,7 @@
       </c>
     </row>
     <row r="524" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A524" s="2" t="s">
+      <c r="A524" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="B524" s="2" t="s">
@@ -12792,7 +12793,7 @@
       </c>
     </row>
     <row r="525" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A525" s="2" t="s">
+      <c r="A525" s="4" t="s">
         <v>1415</v>
       </c>
       <c r="B525" s="2" t="s">
@@ -12806,7 +12807,7 @@
       </c>
     </row>
     <row r="526" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A526" s="2" t="s">
+      <c r="A526" s="4" t="s">
         <v>1552</v>
       </c>
       <c r="B526" s="2" t="s">
@@ -12820,7 +12821,7 @@
       </c>
     </row>
     <row r="527" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A527" s="2" t="s">
+      <c r="A527" s="4" t="s">
         <v>1416</v>
       </c>
       <c r="B527" s="2" t="s">
@@ -12834,7 +12835,7 @@
       </c>
     </row>
     <row r="528" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A528" s="2" t="s">
+      <c r="A528" s="4" t="s">
         <v>1417</v>
       </c>
       <c r="B528" s="2" t="s">
@@ -12848,7 +12849,7 @@
       </c>
     </row>
     <row r="529" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A529" s="2" t="s">
+      <c r="A529" s="4" t="s">
         <v>1418</v>
       </c>
       <c r="B529" s="2" t="s">
@@ -12862,7 +12863,7 @@
       </c>
     </row>
     <row r="530" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A530" s="2" t="s">
+      <c r="A530" s="4" t="s">
         <v>1419</v>
       </c>
       <c r="B530" s="2" t="s">
@@ -12876,7 +12877,7 @@
       </c>
     </row>
     <row r="531" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A531" s="2" t="s">
+      <c r="A531" s="4" t="s">
         <v>1420</v>
       </c>
       <c r="B531" s="2" t="s">
@@ -12890,7 +12891,7 @@
       </c>
     </row>
     <row r="532" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A532" s="2" t="s">
+      <c r="A532" s="4" t="s">
         <v>1421</v>
       </c>
       <c r="B532" s="2" t="s">
@@ -12904,7 +12905,7 @@
       </c>
     </row>
     <row r="533" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A533" s="2" t="s">
+      <c r="A533" s="4" t="s">
         <v>1422</v>
       </c>
       <c r="B533" s="2" t="s">
@@ -12918,7 +12919,7 @@
       </c>
     </row>
     <row r="534" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A534" s="2" t="s">
+      <c r="A534" s="4" t="s">
         <v>1423</v>
       </c>
       <c r="B534" s="2" t="s">
@@ -12932,7 +12933,7 @@
       </c>
     </row>
     <row r="535" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A535" s="2" t="s">
+      <c r="A535" s="4" t="s">
         <v>1424</v>
       </c>
       <c r="B535" s="2" t="s">
@@ -12946,7 +12947,7 @@
       </c>
     </row>
     <row r="536" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A536" s="2" t="s">
+      <c r="A536" s="4" t="s">
         <v>1425</v>
       </c>
       <c r="B536" s="2" t="s">
@@ -12960,7 +12961,7 @@
       </c>
     </row>
     <row r="537" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A537" s="2" t="s">
+      <c r="A537" s="4" t="s">
         <v>1426</v>
       </c>
       <c r="B537" s="2" t="s">
@@ -12974,7 +12975,7 @@
       </c>
     </row>
     <row r="538" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A538" s="2" t="s">
+      <c r="A538" s="4" t="s">
         <v>1427</v>
       </c>
       <c r="B538" s="2" t="s">
@@ -12988,7 +12989,7 @@
       </c>
     </row>
     <row r="539" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A539" s="2" t="s">
+      <c r="A539" s="4" t="s">
         <v>1428</v>
       </c>
       <c r="B539" s="2" t="s">
@@ -13002,7 +13003,7 @@
       </c>
     </row>
     <row r="540" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A540" s="2" t="s">
+      <c r="A540" s="4" t="s">
         <v>1429</v>
       </c>
       <c r="B540" s="2" t="s">
@@ -13016,7 +13017,7 @@
       </c>
     </row>
     <row r="541" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A541" s="2" t="s">
+      <c r="A541" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="B541" s="2" t="s">
@@ -13030,7 +13031,7 @@
       </c>
     </row>
     <row r="542" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A542" s="2" t="s">
+      <c r="A542" s="4" t="s">
         <v>1431</v>
       </c>
       <c r="B542" s="2" t="s">
@@ -13044,7 +13045,7 @@
       </c>
     </row>
     <row r="543" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A543" s="2" t="s">
+      <c r="A543" s="4" t="s">
         <v>1432</v>
       </c>
       <c r="B543" s="2" t="s">
@@ -13058,7 +13059,7 @@
       </c>
     </row>
     <row r="544" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A544" s="2" t="s">
+      <c r="A544" s="4" t="s">
         <v>1433</v>
       </c>
       <c r="B544" s="2" t="s">
@@ -13072,7 +13073,7 @@
       </c>
     </row>
     <row r="545" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A545" s="2" t="s">
+      <c r="A545" s="4" t="s">
         <v>1434</v>
       </c>
       <c r="B545" s="2" t="s">
@@ -13086,7 +13087,7 @@
       </c>
     </row>
     <row r="546" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A546" s="2" t="s">
+      <c r="A546" s="4" t="s">
         <v>1435</v>
       </c>
       <c r="B546" s="2" t="s">
@@ -13100,7 +13101,7 @@
       </c>
     </row>
     <row r="547" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A547" s="2" t="s">
+      <c r="A547" s="4" t="s">
         <v>1436</v>
       </c>
       <c r="B547" s="2" t="s">
@@ -13114,7 +13115,7 @@
       </c>
     </row>
     <row r="548" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A548" s="2" t="s">
+      <c r="A548" s="4" t="s">
         <v>1437</v>
       </c>
       <c r="B548" s="2" t="s">
@@ -13128,7 +13129,7 @@
       </c>
     </row>
     <row r="549" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A549" s="2" t="s">
+      <c r="A549" s="4" t="s">
         <v>1438</v>
       </c>
       <c r="B549" s="2" t="s">
@@ -13142,7 +13143,7 @@
       </c>
     </row>
     <row r="550" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A550" s="2" t="s">
+      <c r="A550" s="4" t="s">
         <v>1439</v>
       </c>
       <c r="B550" s="2" t="s">
@@ -13156,7 +13157,7 @@
       </c>
     </row>
     <row r="551" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A551" s="2" t="s">
+      <c r="A551" s="4" t="s">
         <v>1440</v>
       </c>
       <c r="B551" s="2" t="s">
@@ -13170,7 +13171,7 @@
       </c>
     </row>
     <row r="552" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A552" s="2" t="s">
+      <c r="A552" s="4" t="s">
         <v>1441</v>
       </c>
       <c r="B552" s="2" t="s">
@@ -13184,7 +13185,7 @@
       </c>
     </row>
     <row r="553" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A553" s="2" t="s">
+      <c r="A553" s="4" t="s">
         <v>1442</v>
       </c>
       <c r="B553" s="2" t="s">
@@ -13198,7 +13199,7 @@
       </c>
     </row>
     <row r="554" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A554" s="2" t="s">
+      <c r="A554" s="4" t="s">
         <v>1443</v>
       </c>
       <c r="B554" s="2" t="s">
@@ -13212,7 +13213,7 @@
       </c>
     </row>
     <row r="555" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A555" s="2" t="s">
+      <c r="A555" s="4" t="s">
         <v>1444</v>
       </c>
       <c r="B555" s="2" t="s">
@@ -13226,7 +13227,7 @@
       </c>
     </row>
     <row r="556" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A556" s="2" t="s">
+      <c r="A556" s="4" t="s">
         <v>1445</v>
       </c>
       <c r="B556" s="2" t="s">
@@ -13240,7 +13241,7 @@
       </c>
     </row>
     <row r="557" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A557" s="2" t="s">
+      <c r="A557" s="4" t="s">
         <v>1446</v>
       </c>
       <c r="B557" s="2" t="s">
@@ -13254,7 +13255,7 @@
       </c>
     </row>
     <row r="558" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A558" s="2" t="s">
+      <c r="A558" s="4" t="s">
         <v>1447</v>
       </c>
       <c r="B558" s="2" t="s">
@@ -13268,7 +13269,7 @@
       </c>
     </row>
     <row r="559" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A559" s="2" t="s">
+      <c r="A559" s="4" t="s">
         <v>1448</v>
       </c>
       <c r="B559" s="2" t="s">
@@ -13282,7 +13283,7 @@
       </c>
     </row>
     <row r="560" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A560" s="2" t="s">
+      <c r="A560" s="4" t="s">
         <v>1449</v>
       </c>
       <c r="B560" s="2" t="s">
@@ -13296,7 +13297,7 @@
       </c>
     </row>
     <row r="561" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A561" s="2" t="s">
+      <c r="A561" s="4" t="s">
         <v>1450</v>
       </c>
       <c r="B561" s="2" t="s">
@@ -13310,7 +13311,7 @@
       </c>
     </row>
     <row r="562" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A562" s="2" t="s">
+      <c r="A562" s="4" t="s">
         <v>1451</v>
       </c>
       <c r="B562" s="2" t="s">
@@ -13324,7 +13325,7 @@
       </c>
     </row>
     <row r="563" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A563" s="2" t="s">
+      <c r="A563" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="B563" s="2" t="s">
@@ -13338,7 +13339,7 @@
       </c>
     </row>
     <row r="564" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A564" s="2" t="s">
+      <c r="A564" s="4" t="s">
         <v>1453</v>
       </c>
       <c r="B564" s="2" t="s">
@@ -13352,7 +13353,7 @@
       </c>
     </row>
     <row r="565" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A565" s="2" t="s">
+      <c r="A565" s="4" t="s">
         <v>1454</v>
       </c>
       <c r="B565" s="2" t="s">
@@ -13366,7 +13367,7 @@
       </c>
     </row>
     <row r="566" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A566" s="2" t="s">
+      <c r="A566" s="4" t="s">
         <v>1455</v>
       </c>
       <c r="B566" s="2" t="s">
@@ -13380,7 +13381,7 @@
       </c>
     </row>
     <row r="567" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A567" s="2" t="s">
+      <c r="A567" s="4" t="s">
         <v>1456</v>
       </c>
       <c r="B567" s="2" t="s">
@@ -13394,7 +13395,7 @@
       </c>
     </row>
     <row r="568" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A568" s="2" t="s">
+      <c r="A568" s="4" t="s">
         <v>1457</v>
       </c>
       <c r="B568" s="2" t="s">
@@ -13408,7 +13409,7 @@
       </c>
     </row>
     <row r="569" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A569" s="2" t="s">
+      <c r="A569" s="4" t="s">
         <v>1458</v>
       </c>
       <c r="B569" s="2" t="s">
@@ -13422,7 +13423,7 @@
       </c>
     </row>
     <row r="570" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A570" s="2" t="s">
+      <c r="A570" s="4" t="s">
         <v>1336</v>
       </c>
       <c r="B570" s="2" t="s">
@@ -13436,7 +13437,7 @@
       </c>
     </row>
     <row r="571" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A571" s="2" t="s">
+      <c r="A571" s="4" t="s">
         <v>1459</v>
       </c>
       <c r="B571" s="2" t="s">
@@ -13450,7 +13451,7 @@
       </c>
     </row>
     <row r="572" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A572" s="2" t="s">
+      <c r="A572" s="4" t="s">
         <v>1460</v>
       </c>
       <c r="B572" s="2" t="s">
@@ -13464,7 +13465,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A573" s="2" t="s">
+      <c r="A573" s="4" t="s">
         <v>1461</v>
       </c>
       <c r="B573" s="2" t="s">
@@ -13478,7 +13479,7 @@
       </c>
     </row>
     <row r="574" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A574" s="2" t="s">
+      <c r="A574" s="4" t="s">
         <v>1462</v>
       </c>
       <c r="B574" s="2" t="s">
@@ -13492,7 +13493,7 @@
       </c>
     </row>
     <row r="575" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A575" s="2" t="s">
+      <c r="A575" s="4" t="s">
         <v>1463</v>
       </c>
       <c r="B575" s="2" t="s">
@@ -13506,7 +13507,7 @@
       </c>
     </row>
     <row r="576" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A576" s="2" t="s">
+      <c r="A576" s="4" t="s">
         <v>1464</v>
       </c>
       <c r="B576" s="2" t="s">
@@ -13520,7 +13521,7 @@
       </c>
     </row>
     <row r="577" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A577" s="2" t="s">
+      <c r="A577" s="4" t="s">
         <v>1465</v>
       </c>
       <c r="B577" s="2" t="s">
@@ -13534,7 +13535,7 @@
       </c>
     </row>
     <row r="578" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A578" s="2" t="s">
+      <c r="A578" s="4" t="s">
         <v>1466</v>
       </c>
       <c r="B578" s="2" t="s">
@@ -13548,7 +13549,7 @@
       </c>
     </row>
     <row r="579" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A579" s="2" t="s">
+      <c r="A579" s="4" t="s">
         <v>1467</v>
       </c>
       <c r="B579" s="2" t="s">
@@ -13562,7 +13563,7 @@
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A580" s="2" t="s">
+      <c r="A580" s="4" t="s">
         <v>1553</v>
       </c>
       <c r="B580" s="2" t="s">
@@ -13576,7 +13577,7 @@
       </c>
     </row>
     <row r="581" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A581" s="2" t="s">
+      <c r="A581" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="B581" s="2" t="s">
@@ -13590,7 +13591,7 @@
       </c>
     </row>
     <row r="582" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A582" s="2" t="s">
+      <c r="A582" s="4" t="s">
         <v>1554</v>
       </c>
       <c r="B582" s="2" t="s">
@@ -13618,7 +13619,7 @@
       </c>
     </row>
     <row r="584" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A584" s="2" t="s">
+      <c r="A584" s="4" t="s">
         <v>1556</v>
       </c>
       <c r="B584" s="2" t="s">
@@ -13632,7 +13633,7 @@
       </c>
     </row>
     <row r="585" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A585" s="2" t="s">
+      <c r="A585" s="4" t="s">
         <v>1557</v>
       </c>
       <c r="B585" s="2" t="s">
@@ -13646,7 +13647,7 @@
       </c>
     </row>
     <row r="586" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A586" s="2" t="s">
+      <c r="A586" s="4" t="s">
         <v>1558</v>
       </c>
       <c r="B586" s="2" t="s">
@@ -13660,7 +13661,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A587" s="2" t="s">
+      <c r="A587" s="4" t="s">
         <v>1559</v>
       </c>
       <c r="B587" s="2" t="s">
@@ -13674,7 +13675,7 @@
       </c>
     </row>
     <row r="588" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A588" s="2" t="s">
+      <c r="A588" s="4" t="s">
         <v>1560</v>
       </c>
       <c r="B588" s="2" t="s">
@@ -13688,7 +13689,7 @@
       </c>
     </row>
     <row r="589" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A589" s="2" t="s">
+      <c r="A589" s="4" t="s">
         <v>1561</v>
       </c>
       <c r="B589" s="2" t="s">
@@ -13702,7 +13703,7 @@
       </c>
     </row>
     <row r="590" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A590" s="2" t="s">
+      <c r="A590" s="4" t="s">
         <v>1562</v>
       </c>
       <c r="B590" s="2" t="s">
@@ -13716,7 +13717,7 @@
       </c>
     </row>
     <row r="591" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A591" s="2" t="s">
+      <c r="A591" s="4" t="s">
         <v>1563</v>
       </c>
       <c r="B591" s="2" t="s">
@@ -13730,7 +13731,7 @@
       </c>
     </row>
     <row r="592" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A592" s="2" t="s">
+      <c r="A592" s="4" t="s">
         <v>1564</v>
       </c>
       <c r="B592" s="2" t="s">
@@ -13744,7 +13745,7 @@
       </c>
     </row>
     <row r="593" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A593" s="2" t="s">
+      <c r="A593" s="4" t="s">
         <v>1565</v>
       </c>
       <c r="B593" s="2" t="s">
@@ -13758,7 +13759,7 @@
       </c>
     </row>
     <row r="594" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A594" s="2" t="s">
+      <c r="A594" s="4" t="s">
         <v>1566</v>
       </c>
       <c r="B594" s="2" t="s">
@@ -13772,7 +13773,7 @@
       </c>
     </row>
     <row r="595" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A595" s="2" t="s">
+      <c r="A595" s="4" t="s">
         <v>1567</v>
       </c>
       <c r="B595" s="2" t="s">
@@ -13786,7 +13787,7 @@
       </c>
     </row>
     <row r="596" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A596" s="2" t="s">
+      <c r="A596" s="4" t="s">
         <v>1568</v>
       </c>
       <c r="B596" s="2" t="s">
@@ -13800,7 +13801,7 @@
       </c>
     </row>
     <row r="597" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A597" s="2" t="s">
+      <c r="A597" s="4" t="s">
         <v>1569</v>
       </c>
       <c r="B597" s="2" t="s">
@@ -13814,7 +13815,7 @@
       </c>
     </row>
     <row r="598" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A598" s="2" t="s">
+      <c r="A598" s="4" t="s">
         <v>1570</v>
       </c>
       <c r="B598" s="2" t="s">
@@ -13828,7 +13829,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A599" s="2" t="s">
+      <c r="A599" s="4" t="s">
         <v>1571</v>
       </c>
       <c r="B599" s="2" t="s">
@@ -13842,7 +13843,7 @@
       </c>
     </row>
     <row r="600" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A600" s="2" t="s">
+      <c r="A600" s="4" t="s">
         <v>1572</v>
       </c>
       <c r="B600" s="2" t="s">
@@ -13856,7 +13857,7 @@
       </c>
     </row>
     <row r="601" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A601" s="2" t="s">
+      <c r="A601" s="4" t="s">
         <v>1573</v>
       </c>
       <c r="B601" s="2" t="s">
@@ -13870,7 +13871,7 @@
       </c>
     </row>
     <row r="602" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A602" s="2" t="s">
+      <c r="A602" s="4" t="s">
         <v>1574</v>
       </c>
       <c r="B602" s="2" t="s">
@@ -13884,7 +13885,7 @@
       </c>
     </row>
     <row r="603" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A603" s="2" t="s">
+      <c r="A603" s="4" t="s">
         <v>1575</v>
       </c>
       <c r="B603" s="2" t="s">
@@ -13898,7 +13899,7 @@
       </c>
     </row>
     <row r="604" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A604" s="2" t="s">
+      <c r="A604" s="4" t="s">
         <v>1576</v>
       </c>
       <c r="B604" s="2" t="s">
@@ -13912,7 +13913,7 @@
       </c>
     </row>
     <row r="605" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A605" s="2" t="s">
+      <c r="A605" s="4" t="s">
         <v>1577</v>
       </c>
       <c r="B605" s="2" t="s">
@@ -13926,7 +13927,7 @@
       </c>
     </row>
     <row r="606" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A606" s="2" t="s">
+      <c r="A606" s="4" t="s">
         <v>1578</v>
       </c>
       <c r="B606" s="2" t="s">
@@ -13940,7 +13941,7 @@
       </c>
     </row>
     <row r="607" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A607" s="2" t="s">
+      <c r="A607" s="4" t="s">
         <v>1579</v>
       </c>
       <c r="B607" s="2" t="s">
@@ -13954,7 +13955,7 @@
       </c>
     </row>
     <row r="608" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A608" s="2" t="s">
+      <c r="A608" s="4" t="s">
         <v>1580</v>
       </c>
       <c r="B608" s="2" t="s">
@@ -13968,7 +13969,7 @@
       </c>
     </row>
     <row r="609" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A609" s="2" t="s">
+      <c r="A609" s="4" t="s">
         <v>1581</v>
       </c>
       <c r="B609" s="2" t="s">
@@ -13982,7 +13983,7 @@
       </c>
     </row>
     <row r="610" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A610" s="2" t="s">
+      <c r="A610" s="4" t="s">
         <v>1582</v>
       </c>
       <c r="B610" s="2" t="s">
@@ -13996,7 +13997,7 @@
       </c>
     </row>
     <row r="611" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A611" s="2" t="s">
+      <c r="A611" s="4" t="s">
         <v>1583</v>
       </c>
       <c r="B611" s="2" t="s">
@@ -14010,7 +14011,7 @@
       </c>
     </row>
     <row r="612" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A612" s="2" t="s">
+      <c r="A612" s="4" t="s">
         <v>1584</v>
       </c>
       <c r="B612" s="2" t="s">
@@ -14024,7 +14025,7 @@
       </c>
     </row>
     <row r="613" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A613" s="2" t="s">
+      <c r="A613" s="4" t="s">
         <v>1585</v>
       </c>
       <c r="B613" s="2" t="s">
@@ -14038,7 +14039,7 @@
       </c>
     </row>
     <row r="614" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A614" s="2" t="s">
+      <c r="A614" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="B614" s="2" t="s">
@@ -14052,7 +14053,7 @@
       </c>
     </row>
     <row r="615" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A615" s="2" t="s">
+      <c r="A615" s="4" t="s">
         <v>1587</v>
       </c>
       <c r="B615" s="2" t="s">
@@ -14066,7 +14067,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A616" s="2" t="s">
+      <c r="A616" s="4" t="s">
         <v>1588</v>
       </c>
       <c r="B616" s="2" t="s">
@@ -14080,7 +14081,7 @@
       </c>
     </row>
     <row r="617" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A617" s="2" t="s">
+      <c r="A617" s="4" t="s">
         <v>1589</v>
       </c>
       <c r="B617" s="2" t="s">
@@ -14094,7 +14095,7 @@
       </c>
     </row>
     <row r="618" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A618" s="2" t="s">
+      <c r="A618" s="4" t="s">
         <v>1590</v>
       </c>
       <c r="B618" s="2" t="s">
@@ -14108,7 +14109,7 @@
       </c>
     </row>
     <row r="619" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A619" s="2" t="s">
+      <c r="A619" s="4" t="s">
         <v>1591</v>
       </c>
       <c r="B619" s="2" t="s">
@@ -14122,7 +14123,7 @@
       </c>
     </row>
     <row r="620" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A620" s="2" t="s">
+      <c r="A620" s="4" t="s">
         <v>1592</v>
       </c>
       <c r="B620" s="2" t="s">
@@ -14136,7 +14137,7 @@
       </c>
     </row>
     <row r="621" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A621" s="2" t="s">
+      <c r="A621" s="4" t="s">
         <v>1593</v>
       </c>
       <c r="B621" s="2" t="s">
@@ -14150,7 +14151,7 @@
       </c>
     </row>
     <row r="622" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A622" s="2" t="s">
+      <c r="A622" s="4" t="s">
         <v>1594</v>
       </c>
       <c r="B622" s="2" t="s">
@@ -14164,7 +14165,7 @@
       </c>
     </row>
     <row r="623" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A623" s="2" t="s">
+      <c r="A623" s="4" t="s">
         <v>1595</v>
       </c>
       <c r="B623" s="2" t="s">
@@ -14178,7 +14179,7 @@
       </c>
     </row>
     <row r="624" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A624" s="2" t="s">
+      <c r="A624" s="4" t="s">
         <v>1596</v>
       </c>
       <c r="B624" s="2" t="s">
@@ -14192,7 +14193,7 @@
       </c>
     </row>
     <row r="625" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A625" s="2" t="s">
+      <c r="A625" s="4" t="s">
         <v>1597</v>
       </c>
       <c r="B625" s="2" t="s">
@@ -14206,7 +14207,7 @@
       </c>
     </row>
     <row r="626" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A626" s="2" t="s">
+      <c r="A626" s="4" t="s">
         <v>1598</v>
       </c>
       <c r="B626" s="2" t="s">
@@ -14220,7 +14221,7 @@
       </c>
     </row>
     <row r="627" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A627" s="2" t="s">
+      <c r="A627" s="4" t="s">
         <v>1599</v>
       </c>
       <c r="B627" s="2" t="s">
@@ -14234,7 +14235,7 @@
       </c>
     </row>
     <row r="628" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A628" s="2" t="s">
+      <c r="A628" s="4" t="s">
         <v>1600</v>
       </c>
       <c r="B628" s="2" t="s">
@@ -14248,7 +14249,7 @@
       </c>
     </row>
     <row r="629" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A629" s="2" t="s">
+      <c r="A629" s="4" t="s">
         <v>1601</v>
       </c>
       <c r="B629" s="2" t="s">
@@ -14262,7 +14263,7 @@
       </c>
     </row>
     <row r="630" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A630" s="2" t="s">
+      <c r="A630" s="4" t="s">
         <v>1602</v>
       </c>
       <c r="B630" s="2" t="s">
@@ -14276,7 +14277,7 @@
       </c>
     </row>
     <row r="631" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A631" s="2" t="s">
+      <c r="A631" s="4" t="s">
         <v>1603</v>
       </c>
       <c r="B631" s="2" t="s">
@@ -14290,7 +14291,7 @@
       </c>
     </row>
     <row r="632" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A632" s="2" t="s">
+      <c r="A632" s="4" t="s">
         <v>1604</v>
       </c>
       <c r="B632" s="2" t="s">
@@ -14304,7 +14305,7 @@
       </c>
     </row>
     <row r="633" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A633" s="2" t="s">
+      <c r="A633" s="4" t="s">
         <v>1605</v>
       </c>
       <c r="B633" s="2" t="s">
@@ -14318,7 +14319,7 @@
       </c>
     </row>
     <row r="634" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A634" s="2" t="s">
+      <c r="A634" s="4" t="s">
         <v>1606</v>
       </c>
       <c r="B634" s="2" t="s">
@@ -14332,7 +14333,7 @@
       </c>
     </row>
     <row r="635" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A635" s="2" t="s">
+      <c r="A635" s="4" t="s">
         <v>1607</v>
       </c>
       <c r="B635" s="2" t="s">
@@ -14346,7 +14347,7 @@
       </c>
     </row>
     <row r="636" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A636" s="2" t="s">
+      <c r="A636" s="4" t="s">
         <v>1608</v>
       </c>
       <c r="B636" s="2" t="s">
@@ -14360,7 +14361,7 @@
       </c>
     </row>
     <row r="637" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A637" s="2" t="s">
+      <c r="A637" s="4" t="s">
         <v>1609</v>
       </c>
       <c r="B637" s="2" t="s">
@@ -14374,7 +14375,7 @@
       </c>
     </row>
     <row r="638" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A638" s="2" t="s">
+      <c r="A638" s="4" t="s">
         <v>1610</v>
       </c>
       <c r="B638" s="2" t="s">
@@ -14388,7 +14389,7 @@
       </c>
     </row>
     <row r="639" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A639" s="2" t="s">
+      <c r="A639" s="4" t="s">
         <v>1611</v>
       </c>
       <c r="B639" s="2" t="s">
@@ -14402,7 +14403,7 @@
       </c>
     </row>
     <row r="640" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A640" s="2" t="s">
+      <c r="A640" s="4" t="s">
         <v>1612</v>
       </c>
       <c r="B640" s="2" t="s">
@@ -14416,7 +14417,7 @@
       </c>
     </row>
     <row r="641" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A641" s="2" t="s">
+      <c r="A641" s="4" t="s">
         <v>1613</v>
       </c>
       <c r="B641" s="2" t="s">
@@ -14430,7 +14431,7 @@
       </c>
     </row>
     <row r="642" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A642" s="2" t="s">
+      <c r="A642" s="4" t="s">
         <v>1614</v>
       </c>
       <c r="B642" s="2" t="s">
@@ -14444,7 +14445,7 @@
       </c>
     </row>
     <row r="643" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A643" s="2" t="s">
+      <c r="A643" s="4" t="s">
         <v>1615</v>
       </c>
       <c r="B643" s="2" t="s">
@@ -14458,7 +14459,7 @@
       </c>
     </row>
     <row r="644" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A644" s="2" t="s">
+      <c r="A644" s="4" t="s">
         <v>1616</v>
       </c>
       <c r="B644" s="2" t="s">
@@ -14472,7 +14473,7 @@
       </c>
     </row>
     <row r="645" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A645" s="2" t="s">
+      <c r="A645" s="4" t="s">
         <v>1617</v>
       </c>
       <c r="B645" s="2" t="s">
@@ -14486,7 +14487,7 @@
       </c>
     </row>
     <row r="646" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A646" s="2" t="s">
+      <c r="A646" s="4" t="s">
         <v>1618</v>
       </c>
       <c r="B646" s="2" t="s">
@@ -14500,7 +14501,7 @@
       </c>
     </row>
     <row r="647" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A647" s="2" t="s">
+      <c r="A647" s="4" t="s">
         <v>1619</v>
       </c>
       <c r="B647" s="2" t="s">
@@ -14514,7 +14515,7 @@
       </c>
     </row>
     <row r="648" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A648" s="2" t="s">
+      <c r="A648" s="4" t="s">
         <v>1620</v>
       </c>
       <c r="B648" s="2" t="s">
@@ -14528,7 +14529,7 @@
       </c>
     </row>
     <row r="649" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A649" s="2" t="s">
+      <c r="A649" s="4" t="s">
         <v>1621</v>
       </c>
       <c r="B649" s="2" t="s">
@@ -14542,7 +14543,7 @@
       </c>
     </row>
     <row r="650" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A650" s="2" t="s">
+      <c r="A650" s="4" t="s">
         <v>1622</v>
       </c>
       <c r="B650" s="2" t="s">
@@ -14556,7 +14557,7 @@
       </c>
     </row>
     <row r="651" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A651" s="2" t="s">
+      <c r="A651" s="4" t="s">
         <v>1623</v>
       </c>
       <c r="B651" s="2" t="s">
@@ -14570,7 +14571,7 @@
       </c>
     </row>
     <row r="652" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A652" s="2" t="s">
+      <c r="A652" s="4" t="s">
         <v>1624</v>
       </c>
       <c r="B652" s="2" t="s">
@@ -14584,7 +14585,7 @@
       </c>
     </row>
     <row r="653" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A653" s="2" t="s">
+      <c r="A653" s="4" t="s">
         <v>1625</v>
       </c>
       <c r="B653" s="2" t="s">
@@ -14598,7 +14599,7 @@
       </c>
     </row>
     <row r="654" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A654" s="2" t="s">
+      <c r="A654" s="4" t="s">
         <v>1626</v>
       </c>
       <c r="B654" s="2" t="s">
@@ -14612,7 +14613,7 @@
       </c>
     </row>
     <row r="655" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A655" s="2" t="s">
+      <c r="A655" s="4" t="s">
         <v>1627</v>
       </c>
       <c r="B655" s="2" t="s">
@@ -14626,7 +14627,7 @@
       </c>
     </row>
     <row r="656" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A656" s="2" t="s">
+      <c r="A656" s="4" t="s">
         <v>1628</v>
       </c>
       <c r="B656" s="2" t="s">
@@ -14640,7 +14641,7 @@
       </c>
     </row>
     <row r="657" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A657" s="2" t="s">
+      <c r="A657" s="4" t="s">
         <v>1629</v>
       </c>
       <c r="B657" s="2" t="s">
@@ -14654,7 +14655,7 @@
       </c>
     </row>
     <row r="658" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A658" s="2" t="s">
+      <c r="A658" s="4" t="s">
         <v>1630</v>
       </c>
       <c r="B658" s="2" t="s">
@@ -14668,7 +14669,7 @@
       </c>
     </row>
     <row r="659" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A659" s="2" t="s">
+      <c r="A659" s="4" t="s">
         <v>1631</v>
       </c>
       <c r="B659" s="2" t="s">
@@ -14682,7 +14683,7 @@
       </c>
     </row>
     <row r="660" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A660" s="2" t="s">
+      <c r="A660" s="4" t="s">
         <v>1632</v>
       </c>
       <c r="B660" s="2" t="s">
@@ -14696,7 +14697,7 @@
       </c>
     </row>
     <row r="661" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A661" s="2" t="s">
+      <c r="A661" s="4" t="s">
         <v>1633</v>
       </c>
       <c r="B661" s="2" t="s">
@@ -14710,7 +14711,7 @@
       </c>
     </row>
     <row r="662" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A662" s="2" t="s">
+      <c r="A662" s="4" t="s">
         <v>1634</v>
       </c>
       <c r="B662" s="2" t="s">
@@ -14724,7 +14725,7 @@
       </c>
     </row>
     <row r="663" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A663" s="2" t="s">
+      <c r="A663" s="4" t="s">
         <v>1635</v>
       </c>
       <c r="B663" s="2" t="s">
@@ -14738,7 +14739,7 @@
       </c>
     </row>
     <row r="664" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A664" s="2" t="s">
+      <c r="A664" s="4" t="s">
         <v>1636</v>
       </c>
       <c r="B664" s="2" t="s">
@@ -14752,7 +14753,7 @@
       </c>
     </row>
     <row r="665" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A665" s="2" t="s">
+      <c r="A665" s="4" t="s">
         <v>1637</v>
       </c>
       <c r="B665" s="2" t="s">
@@ -14766,7 +14767,7 @@
       </c>
     </row>
     <row r="666" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A666" s="2" t="s">
+      <c r="A666" s="4" t="s">
         <v>1638</v>
       </c>
       <c r="B666" s="2" t="s">
@@ -14780,7 +14781,7 @@
       </c>
     </row>
     <row r="667" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A667" s="2" t="s">
+      <c r="A667" s="4" t="s">
         <v>1639</v>
       </c>
       <c r="B667" s="2" t="s">
@@ -14794,7 +14795,7 @@
       </c>
     </row>
     <row r="668" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A668" s="2" t="s">
+      <c r="A668" s="4" t="s">
         <v>1640</v>
       </c>
       <c r="B668" s="2" t="s">
@@ -14808,7 +14809,7 @@
       </c>
     </row>
     <row r="669" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A669" s="2" t="s">
+      <c r="A669" s="4" t="s">
         <v>1641</v>
       </c>
       <c r="B669" s="2" t="s">
@@ -14822,7 +14823,7 @@
       </c>
     </row>
     <row r="670" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A670" s="2" t="s">
+      <c r="A670" s="4" t="s">
         <v>1642</v>
       </c>
       <c r="B670" s="2" t="s">
@@ -14836,7 +14837,7 @@
       </c>
     </row>
     <row r="671" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A671" s="2" t="s">
+      <c r="A671" s="4" t="s">
         <v>1643</v>
       </c>
       <c r="B671" s="2" t="s">
@@ -14850,7 +14851,7 @@
       </c>
     </row>
     <row r="672" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A672" s="2" t="s">
+      <c r="A672" s="4" t="s">
         <v>1644</v>
       </c>
       <c r="B672" s="2" t="s">
@@ -14864,7 +14865,7 @@
       </c>
     </row>
     <row r="673" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A673" s="2" t="s">
+      <c r="A673" s="4" t="s">
         <v>1645</v>
       </c>
       <c r="B673" s="2" t="s">
@@ -14878,7 +14879,7 @@
       </c>
     </row>
     <row r="674" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A674" s="2" t="s">
+      <c r="A674" s="4" t="s">
         <v>1646</v>
       </c>
       <c r="B674" s="2" t="s">
@@ -14892,7 +14893,7 @@
       </c>
     </row>
     <row r="675" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A675" s="2" t="s">
+      <c r="A675" s="4" t="s">
         <v>1647</v>
       </c>
       <c r="B675" s="2" t="s">
@@ -14906,7 +14907,7 @@
       </c>
     </row>
     <row r="676" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A676" s="2" t="s">
+      <c r="A676" s="4" t="s">
         <v>1648</v>
       </c>
       <c r="B676" s="2" t="s">
@@ -14920,7 +14921,7 @@
       </c>
     </row>
     <row r="677" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A677" s="2" t="s">
+      <c r="A677" s="4" t="s">
         <v>1649</v>
       </c>
       <c r="B677" s="2" t="s">
@@ -14934,7 +14935,7 @@
       </c>
     </row>
     <row r="678" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A678" s="2" t="s">
+      <c r="A678" s="4" t="s">
         <v>1650</v>
       </c>
       <c r="B678" s="2" t="s">
@@ -14948,7 +14949,7 @@
       </c>
     </row>
     <row r="679" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A679" s="2" t="s">
+      <c r="A679" s="4" t="s">
         <v>1651</v>
       </c>
       <c r="B679" s="2" t="s">
@@ -14962,7 +14963,7 @@
       </c>
     </row>
     <row r="680" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A680" s="2" t="s">
+      <c r="A680" s="4" t="s">
         <v>1652</v>
       </c>
       <c r="B680" s="2" t="s">
@@ -14976,7 +14977,7 @@
       </c>
     </row>
     <row r="681" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A681" s="2" t="s">
+      <c r="A681" s="4" t="s">
         <v>1653</v>
       </c>
       <c r="B681" s="2" t="s">
@@ -14990,7 +14991,7 @@
       </c>
     </row>
     <row r="682" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A682" s="2" t="s">
+      <c r="A682" s="4" t="s">
         <v>1654</v>
       </c>
       <c r="B682" s="2" t="s">
@@ -15004,7 +15005,7 @@
       </c>
     </row>
     <row r="683" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A683" s="2" t="s">
+      <c r="A683" s="4" t="s">
         <v>1655</v>
       </c>
       <c r="B683" s="2" t="s">
@@ -15018,7 +15019,7 @@
       </c>
     </row>
     <row r="684" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A684" s="2" t="s">
+      <c r="A684" s="4" t="s">
         <v>1656</v>
       </c>
       <c r="B684" s="2" t="s">
@@ -15032,7 +15033,7 @@
       </c>
     </row>
     <row r="685" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A685" s="2" t="s">
+      <c r="A685" s="4" t="s">
         <v>1657</v>
       </c>
       <c r="B685" s="2" t="s">
@@ -15046,7 +15047,7 @@
       </c>
     </row>
     <row r="686" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A686" s="2" t="s">
+      <c r="A686" s="4" t="s">
         <v>1658</v>
       </c>
       <c r="B686" s="2" t="s">
@@ -15060,7 +15061,7 @@
       </c>
     </row>
     <row r="687" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A687" s="2" t="s">
+      <c r="A687" s="4" t="s">
         <v>1659</v>
       </c>
       <c r="B687" s="2" t="s">
@@ -15074,7 +15075,7 @@
       </c>
     </row>
     <row r="688" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A688" s="2" t="s">
+      <c r="A688" s="4" t="s">
         <v>1660</v>
       </c>
       <c r="B688" s="2" t="s">
@@ -15088,7 +15089,7 @@
       </c>
     </row>
     <row r="689" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A689" s="2" t="s">
+      <c r="A689" s="4" t="s">
         <v>1661</v>
       </c>
       <c r="B689" s="2" t="s">
@@ -15102,7 +15103,7 @@
       </c>
     </row>
     <row r="690" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A690" s="2" t="s">
+      <c r="A690" s="4" t="s">
         <v>1469</v>
       </c>
       <c r="B690" s="2" t="s">
@@ -15116,7 +15117,7 @@
       </c>
     </row>
     <row r="691" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A691" s="2" t="s">
+      <c r="A691" s="4" t="s">
         <v>1469</v>
       </c>
       <c r="B691" s="2" t="s">
@@ -15130,7 +15131,7 @@
       </c>
     </row>
     <row r="692" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A692" s="2" t="s">
+      <c r="A692" s="4" t="s">
         <v>1470</v>
       </c>
       <c r="B692" s="2" t="s">
@@ -15144,7 +15145,7 @@
       </c>
     </row>
     <row r="693" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A693" s="2" t="s">
+      <c r="A693" s="4" t="s">
         <v>1471</v>
       </c>
       <c r="B693" s="2" t="s">
@@ -15158,7 +15159,7 @@
       </c>
     </row>
     <row r="694" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A694" s="2" t="s">
+      <c r="A694" s="4" t="s">
         <v>1472</v>
       </c>
       <c r="B694" s="2" t="s">
@@ -15172,7 +15173,7 @@
       </c>
     </row>
     <row r="695" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A695" s="2" t="s">
+      <c r="A695" s="4" t="s">
         <v>1473</v>
       </c>
       <c r="B695" s="2" t="s">
@@ -15186,7 +15187,7 @@
       </c>
     </row>
     <row r="696" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A696" s="2" t="s">
+      <c r="A696" s="4" t="s">
         <v>1474</v>
       </c>
       <c r="B696" s="2" t="s">
@@ -15200,7 +15201,7 @@
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A697" s="2" t="s">
+      <c r="A697" s="4" t="s">
         <v>1256</v>
       </c>
       <c r="B697" s="2" t="s">
@@ -15214,7 +15215,7 @@
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A698" s="2" t="s">
+      <c r="A698" s="4" t="s">
         <v>1159</v>
       </c>
       <c r="B698" s="2" t="s">
@@ -15228,7 +15229,7 @@
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A699" s="2" t="s">
+      <c r="A699" s="4" t="s">
         <v>1160</v>
       </c>
       <c r="B699" s="2" t="s">
@@ -15242,7 +15243,7 @@
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A700" s="2" t="s">
+      <c r="A700" s="4" t="s">
         <v>1161</v>
       </c>
       <c r="B700" s="2" t="s">
@@ -15256,7 +15257,7 @@
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A701" s="2" t="s">
+      <c r="A701" s="4" t="s">
         <v>1162</v>
       </c>
       <c r="B701" s="2" t="s">
@@ -15270,7 +15271,7 @@
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A702" s="2" t="s">
+      <c r="A702" s="4" t="s">
         <v>1163</v>
       </c>
       <c r="B702" s="2" t="s">
@@ -15284,7 +15285,7 @@
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A703" s="2" t="s">
+      <c r="A703" s="4" t="s">
         <v>1164</v>
       </c>
       <c r="B703" s="2" t="s">
@@ -15298,7 +15299,7 @@
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A704" s="2" t="s">
+      <c r="A704" s="4" t="s">
         <v>1165</v>
       </c>
       <c r="B704" s="2" t="s">
@@ -15312,7 +15313,7 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A705" s="2" t="s">
+      <c r="A705" s="4" t="s">
         <v>1166</v>
       </c>
       <c r="B705" s="2" t="s">
@@ -15326,7 +15327,7 @@
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A706" s="2" t="s">
+      <c r="A706" s="4" t="s">
         <v>1167</v>
       </c>
       <c r="B706" s="2" t="s">
@@ -15340,7 +15341,7 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A707" s="2" t="s">
+      <c r="A707" s="4" t="s">
         <v>1168</v>
       </c>
       <c r="B707" s="2" t="s">
@@ -15354,7 +15355,7 @@
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A708" s="2" t="s">
+      <c r="A708" s="4" t="s">
         <v>1169</v>
       </c>
       <c r="B708" s="2" t="s">
@@ -15368,7 +15369,7 @@
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A709" s="2" t="s">
+      <c r="A709" s="4" t="s">
         <v>1170</v>
       </c>
       <c r="B709" s="2" t="s">
@@ -15382,7 +15383,7 @@
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A710" s="2" t="s">
+      <c r="A710" s="4" t="s">
         <v>1171</v>
       </c>
       <c r="B710" s="2" t="s">
@@ -15396,7 +15397,7 @@
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A711" s="2" t="s">
+      <c r="A711" s="4" t="s">
         <v>1172</v>
       </c>
       <c r="B711" s="2" t="s">
@@ -15410,7 +15411,7 @@
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A712" s="2" t="s">
+      <c r="A712" s="4" t="s">
         <v>1173</v>
       </c>
       <c r="B712" s="2" t="s">
@@ -15424,7 +15425,7 @@
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A713" s="2" t="s">
+      <c r="A713" s="4" t="s">
         <v>1174</v>
       </c>
       <c r="B713" s="2" t="s">
@@ -15438,7 +15439,7 @@
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A714" s="2" t="s">
+      <c r="A714" s="4" t="s">
         <v>1175</v>
       </c>
       <c r="B714" s="2" t="s">
@@ -15452,7 +15453,7 @@
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A715" s="2" t="s">
+      <c r="A715" s="4" t="s">
         <v>1176</v>
       </c>
       <c r="B715" s="2" t="s">
@@ -15466,7 +15467,7 @@
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A716" s="2" t="s">
+      <c r="A716" s="4" t="s">
         <v>1177</v>
       </c>
       <c r="B716" s="2" t="s">
@@ -15480,7 +15481,7 @@
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A717" s="2" t="s">
+      <c r="A717" s="4" t="s">
         <v>1178</v>
       </c>
       <c r="B717" s="2" t="s">
@@ -15494,7 +15495,7 @@
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A718" s="2" t="s">
+      <c r="A718" s="4" t="s">
         <v>1179</v>
       </c>
       <c r="B718" s="2" t="s">
@@ -15508,7 +15509,7 @@
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A719" s="2" t="s">
+      <c r="A719" s="4" t="s">
         <v>1180</v>
       </c>
       <c r="B719" s="2" t="s">
@@ -15522,7 +15523,7 @@
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A720" s="2" t="s">
+      <c r="A720" s="4" t="s">
         <v>1181</v>
       </c>
       <c r="B720" s="2" t="s">
@@ -15536,7 +15537,7 @@
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A721" s="2" t="s">
+      <c r="A721" s="4" t="s">
         <v>1182</v>
       </c>
       <c r="B721" s="2" t="s">
@@ -15550,7 +15551,7 @@
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A722" s="2" t="s">
+      <c r="A722" s="4" t="s">
         <v>1183</v>
       </c>
       <c r="B722" s="2" t="s">
@@ -15564,7 +15565,7 @@
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A723" s="2" t="s">
+      <c r="A723" s="4" t="s">
         <v>1184</v>
       </c>
       <c r="B723" s="2" t="s">
@@ -15578,7 +15579,7 @@
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A724" s="2" t="s">
+      <c r="A724" s="4" t="s">
         <v>1185</v>
       </c>
       <c r="B724" s="2" t="s">
@@ -15592,7 +15593,7 @@
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A725" s="2" t="s">
+      <c r="A725" s="4" t="s">
         <v>1186</v>
       </c>
       <c r="B725" s="2" t="s">
@@ -15606,7 +15607,7 @@
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A726" s="2" t="s">
+      <c r="A726" s="4" t="s">
         <v>1187</v>
       </c>
       <c r="B726" s="2" t="s">
@@ -15620,7 +15621,7 @@
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A727" s="2" t="s">
+      <c r="A727" s="4" t="s">
         <v>1188</v>
       </c>
       <c r="B727" s="2" t="s">
@@ -15634,7 +15635,7 @@
       </c>
     </row>
     <row r="728" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A728" s="2" t="s">
+      <c r="A728" s="4" t="s">
         <v>1190</v>
       </c>
       <c r="B728" s="2" t="s">
@@ -15648,7 +15649,7 @@
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A729" s="2" t="s">
+      <c r="A729" s="4" t="s">
         <v>1189</v>
       </c>
       <c r="B729" s="2" t="s">
@@ -15662,7 +15663,7 @@
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A730" s="2" t="s">
+      <c r="A730" s="4" t="s">
         <v>1191</v>
       </c>
       <c r="B730" s="2" t="s">
@@ -15676,7 +15677,7 @@
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A731" s="2" t="s">
+      <c r="A731" s="4" t="s">
         <v>1192</v>
       </c>
       <c r="B731" s="2" t="s">
@@ -15690,7 +15691,7 @@
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A732" s="2" t="s">
+      <c r="A732" s="4" t="s">
         <v>1193</v>
       </c>
       <c r="B732" s="2" t="s">
@@ -15704,7 +15705,7 @@
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A733" s="2" t="s">
+      <c r="A733" s="4" t="s">
         <v>1194</v>
       </c>
       <c r="B733" s="2" t="s">
@@ -15718,7 +15719,7 @@
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A734" s="2" t="s">
+      <c r="A734" s="4" t="s">
         <v>1195</v>
       </c>
       <c r="B734" s="2" t="s">
@@ -15732,7 +15733,7 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A735" s="2" t="s">
+      <c r="A735" s="4" t="s">
         <v>1196</v>
       </c>
       <c r="B735" s="2" t="s">
@@ -15746,7 +15747,7 @@
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A736" s="2" t="s">
+      <c r="A736" s="4" t="s">
         <v>1197</v>
       </c>
       <c r="B736" s="2" t="s">
@@ -15760,7 +15761,7 @@
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A737" s="2" t="s">
+      <c r="A737" s="4" t="s">
         <v>1198</v>
       </c>
       <c r="B737" s="2" t="s">
@@ -15774,7 +15775,7 @@
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A738" s="2" t="s">
+      <c r="A738" s="4" t="s">
         <v>1199</v>
       </c>
       <c r="B738" s="2" t="s">
@@ -15788,7 +15789,7 @@
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A739" s="2" t="s">
+      <c r="A739" s="4" t="s">
         <v>1200</v>
       </c>
       <c r="B739" s="2" t="s">
@@ -15802,7 +15803,7 @@
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A740" s="2" t="s">
+      <c r="A740" s="4" t="s">
         <v>1201</v>
       </c>
       <c r="B740" s="2" t="s">
@@ -15816,7 +15817,7 @@
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A741" s="2" t="s">
+      <c r="A741" s="4" t="s">
         <v>1202</v>
       </c>
       <c r="B741" s="2" t="s">
@@ -15830,7 +15831,7 @@
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A742" s="2" t="s">
+      <c r="A742" s="4" t="s">
         <v>1203</v>
       </c>
       <c r="B742" s="2" t="s">
@@ -15844,7 +15845,7 @@
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A743" s="2" t="s">
+      <c r="A743" s="4" t="s">
         <v>1204</v>
       </c>
       <c r="B743" s="2" t="s">
@@ -15858,7 +15859,7 @@
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A744" s="2" t="s">
+      <c r="A744" s="4" t="s">
         <v>1205</v>
       </c>
       <c r="B744" s="2" t="s">
@@ -15872,7 +15873,7 @@
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A745" s="2" t="s">
+      <c r="A745" s="4" t="s">
         <v>1206</v>
       </c>
       <c r="B745" s="2" t="s">
@@ -15886,7 +15887,7 @@
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A746" s="2" t="s">
+      <c r="A746" s="4" t="s">
         <v>1207</v>
       </c>
       <c r="B746" s="2" t="s">
@@ -15900,7 +15901,7 @@
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A747" s="2" t="s">
+      <c r="A747" s="4" t="s">
         <v>1208</v>
       </c>
       <c r="B747" s="2" t="s">
@@ -15914,7 +15915,7 @@
       </c>
     </row>
     <row r="748" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A748" s="2" t="s">
+      <c r="A748" s="4" t="s">
         <v>1209</v>
       </c>
       <c r="B748" s="2" t="s">
@@ -15928,7 +15929,7 @@
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A749" s="2" t="s">
+      <c r="A749" s="4" t="s">
         <v>1210</v>
       </c>
       <c r="B749" s="2" t="s">
@@ -15942,7 +15943,7 @@
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A750" s="2" t="s">
+      <c r="A750" s="4" t="s">
         <v>1211</v>
       </c>
       <c r="B750" s="2" t="s">
@@ -15956,7 +15957,7 @@
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A751" s="2" t="s">
+      <c r="A751" s="4" t="s">
         <v>1212</v>
       </c>
       <c r="B751" s="2" t="s">
@@ -15970,7 +15971,7 @@
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A752" s="2" t="s">
+      <c r="A752" s="4" t="s">
         <v>1213</v>
       </c>
       <c r="B752" s="2" t="s">
@@ -15984,7 +15985,7 @@
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A753" s="2" t="s">
+      <c r="A753" s="4" t="s">
         <v>1214</v>
       </c>
       <c r="B753" s="2" t="s">
@@ -15998,7 +15999,7 @@
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A754" s="2" t="s">
+      <c r="A754" s="4" t="s">
         <v>1215</v>
       </c>
       <c r="B754" s="2" t="s">
@@ -16012,7 +16013,7 @@
       </c>
     </row>
     <row r="755" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A755" s="2" t="s">
+      <c r="A755" s="4" t="s">
         <v>1216</v>
       </c>
       <c r="B755" s="2" t="s">
@@ -16026,7 +16027,7 @@
       </c>
     </row>
     <row r="756" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A756" s="2" t="s">
+      <c r="A756" s="4" t="s">
         <v>1217</v>
       </c>
       <c r="B756" s="2" t="s">
@@ -16040,7 +16041,7 @@
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A757" s="2" t="s">
+      <c r="A757" s="4" t="s">
         <v>1236</v>
       </c>
       <c r="B757" s="5" t="s">
@@ -16054,7 +16055,7 @@
       </c>
     </row>
     <row r="758" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A758" s="2" t="s">
+      <c r="A758" s="4" t="s">
         <v>1237</v>
       </c>
       <c r="B758" s="2" t="s">
@@ -16068,7 +16069,7 @@
       </c>
     </row>
     <row r="759" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A759" s="2" t="s">
+      <c r="A759" s="4" t="s">
         <v>1238</v>
       </c>
       <c r="B759" s="2" t="s">
@@ -16082,7 +16083,7 @@
       </c>
     </row>
     <row r="760" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A760" s="2" t="s">
+      <c r="A760" s="4" t="s">
         <v>1239</v>
       </c>
       <c r="B760" s="2" t="s">
@@ -16096,7 +16097,7 @@
       </c>
     </row>
     <row r="761" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A761" s="2" t="s">
+      <c r="A761" s="4" t="s">
         <v>1240</v>
       </c>
       <c r="B761" s="2" t="s">
@@ -16110,7 +16111,7 @@
       </c>
     </row>
     <row r="762" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A762" s="2" t="s">
+      <c r="A762" s="4" t="s">
         <v>1241</v>
       </c>
       <c r="B762" s="2" t="s">
@@ -16124,7 +16125,7 @@
       </c>
     </row>
     <row r="763" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A763" s="2" t="s">
+      <c r="A763" s="4" t="s">
         <v>1242</v>
       </c>
       <c r="B763" s="2" t="s">
@@ -16138,7 +16139,7 @@
       </c>
     </row>
     <row r="764" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A764" s="2" t="s">
+      <c r="A764" s="4" t="s">
         <v>1221</v>
       </c>
       <c r="B764" s="2" t="s">
@@ -16152,7 +16153,7 @@
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A765" s="2" t="s">
+      <c r="A765" s="4" t="s">
         <v>1222</v>
       </c>
       <c r="B765" s="2" t="s">
@@ -16166,7 +16167,7 @@
       </c>
     </row>
     <row r="766" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A766" s="2" t="s">
+      <c r="A766" s="4" t="s">
         <v>1223</v>
       </c>
       <c r="B766" s="2" t="s">
@@ -16180,7 +16181,7 @@
       </c>
     </row>
     <row r="767" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A767" s="2" t="s">
+      <c r="A767" s="4" t="s">
         <v>1224</v>
       </c>
       <c r="B767" s="2" t="s">
@@ -16194,7 +16195,7 @@
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A768" s="2" t="s">
+      <c r="A768" s="4" t="s">
         <v>1245</v>
       </c>
       <c r="B768" s="2" t="s">
@@ -16208,7 +16209,7 @@
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A769" s="2" t="s">
+      <c r="A769" s="4" t="s">
         <v>1246</v>
       </c>
       <c r="B769" s="2" t="s">
@@ -16222,7 +16223,7 @@
       </c>
     </row>
     <row r="770" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A770" s="2" t="s">
+      <c r="A770" s="4" t="s">
         <v>1251</v>
       </c>
       <c r="B770" s="2" t="s">
@@ -16236,7 +16237,7 @@
       </c>
     </row>
     <row r="771" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A771" s="2" t="s">
+      <c r="A771" s="4" t="s">
         <v>1252</v>
       </c>
       <c r="B771" s="2" t="s">
@@ -16250,7 +16251,7 @@
       </c>
     </row>
     <row r="772" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A772" s="2" t="s">
+      <c r="A772" s="4" t="s">
         <v>1247</v>
       </c>
       <c r="B772" s="2" t="s">
@@ -16264,7 +16265,7 @@
       </c>
     </row>
     <row r="773" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A773" s="2" t="s">
+      <c r="A773" s="4" t="s">
         <v>1248</v>
       </c>
       <c r="B773" s="2" t="s">
@@ -16278,7 +16279,7 @@
       </c>
     </row>
     <row r="774" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A774" s="2" t="s">
+      <c r="A774" s="4" t="s">
         <v>1249</v>
       </c>
       <c r="B774" s="2" t="s">
@@ -16292,7 +16293,7 @@
       </c>
     </row>
     <row r="775" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A775" s="2" t="s">
+      <c r="A775" s="4" t="s">
         <v>1250</v>
       </c>
       <c r="B775" s="2" t="s">
@@ -16306,7 +16307,7 @@
       </c>
     </row>
     <row r="776" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A776" s="2" t="s">
+      <c r="A776" s="4" t="s">
         <v>1227</v>
       </c>
       <c r="B776" s="2" t="s">
@@ -16320,7 +16321,7 @@
       </c>
     </row>
     <row r="777" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A777" s="2" t="s">
+      <c r="A777" s="4" t="s">
         <v>1228</v>
       </c>
       <c r="B777" s="2" t="s">
@@ -16334,7 +16335,7 @@
       </c>
     </row>
     <row r="778" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A778" s="2" t="s">
+      <c r="A778" s="4" t="s">
         <v>1229</v>
       </c>
       <c r="B778" s="2" t="s">
@@ -16348,7 +16349,7 @@
       </c>
     </row>
     <row r="779" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A779" s="2" t="s">
+      <c r="A779" s="4" t="s">
         <v>1230</v>
       </c>
       <c r="B779" s="2" t="s">
@@ -16362,7 +16363,7 @@
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A780" s="2" t="s">
+      <c r="A780" s="4" t="s">
         <v>1231</v>
       </c>
       <c r="B780" s="5" t="s">
@@ -16376,7 +16377,7 @@
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A781" s="2" t="s">
+      <c r="A781" s="4" t="s">
         <v>1232</v>
       </c>
       <c r="B781" s="2" t="s">
@@ -16390,7 +16391,7 @@
       </c>
     </row>
     <row r="782" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A782" s="2" t="s">
+      <c r="A782" s="4" t="s">
         <v>1233</v>
       </c>
       <c r="B782" s="2" t="s">
@@ -16404,7 +16405,7 @@
       </c>
     </row>
     <row r="783" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A783" s="2" t="s">
+      <c r="A783" s="4" t="s">
         <v>1243</v>
       </c>
       <c r="B783" s="2" t="s">
@@ -16418,7 +16419,7 @@
       </c>
     </row>
     <row r="784" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A784" s="2" t="s">
+      <c r="A784" s="4" t="s">
         <v>1253</v>
       </c>
       <c r="B784" s="2" t="s">
@@ -16432,7 +16433,7 @@
       </c>
     </row>
     <row r="785" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A785" s="2" t="s">
+      <c r="A785" s="4" t="s">
         <v>1254</v>
       </c>
       <c r="B785" s="2" t="s">
@@ -16446,7 +16447,7 @@
       </c>
     </row>
     <row r="786" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A786" s="2" t="s">
+      <c r="A786" s="4" t="s">
         <v>1255</v>
       </c>
       <c r="B786" s="2" t="s">
@@ -16460,7 +16461,7 @@
       </c>
     </row>
     <row r="787" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A787" s="2" t="s">
+      <c r="A787" s="4" t="s">
         <v>1225</v>
       </c>
       <c r="B787" s="2" t="s">
@@ -16474,7 +16475,7 @@
       </c>
     </row>
     <row r="788" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A788" s="2" t="s">
+      <c r="A788" s="4" t="s">
         <v>1226</v>
       </c>
       <c r="B788" s="5" t="s">
@@ -16488,7 +16489,7 @@
       </c>
     </row>
     <row r="789" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A789" s="2" t="s">
+      <c r="A789" s="4" t="s">
         <v>1234</v>
       </c>
       <c r="B789" s="2" t="s">
@@ -16502,7 +16503,7 @@
       </c>
     </row>
     <row r="790" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A790" s="2" t="s">
+      <c r="A790" s="4" t="s">
         <v>1235</v>
       </c>
       <c r="B790" s="2" t="s">
@@ -16516,7 +16517,7 @@
       </c>
     </row>
     <row r="791" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A791" s="2" t="s">
+      <c r="A791" s="4" t="s">
         <v>1244</v>
       </c>
       <c r="B791" s="2" t="s">
@@ -16530,7 +16531,7 @@
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A792" s="2" t="s">
+      <c r="A792" s="4" t="s">
         <v>1508</v>
       </c>
       <c r="B792" s="2" t="s">
@@ -16544,7 +16545,7 @@
       </c>
     </row>
     <row r="793" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A793" s="2" t="s">
+      <c r="A793" s="4" t="s">
         <v>1475</v>
       </c>
       <c r="B793" s="2" t="s">
@@ -16558,7 +16559,7 @@
       </c>
     </row>
     <row r="794" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A794" s="2" t="s">
+      <c r="A794" s="4" t="s">
         <v>1476</v>
       </c>
       <c r="B794" s="2" t="s">
@@ -16572,7 +16573,7 @@
       </c>
     </row>
     <row r="795" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A795" s="2" t="s">
+      <c r="A795" s="4" t="s">
         <v>1477</v>
       </c>
       <c r="B795" s="2" t="s">
@@ -16586,7 +16587,7 @@
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A796" s="2" t="s">
+      <c r="A796" s="4" t="s">
         <v>1478</v>
       </c>
       <c r="B796" s="2" t="s">
@@ -16600,7 +16601,7 @@
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A797" s="2" t="s">
+      <c r="A797" s="4" t="s">
         <v>1479</v>
       </c>
       <c r="B797" s="2" t="s">
@@ -16614,7 +16615,7 @@
       </c>
     </row>
     <row r="798" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A798" s="2" t="s">
+      <c r="A798" s="4" t="s">
         <v>1480</v>
       </c>
       <c r="B798" s="2" t="s">
@@ -16628,7 +16629,7 @@
       </c>
     </row>
     <row r="799" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A799" s="2" t="s">
+      <c r="A799" s="4" t="s">
         <v>1481</v>
       </c>
       <c r="B799" s="2" t="s">
@@ -16642,7 +16643,7 @@
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A800" s="2" t="s">
+      <c r="A800" s="4" t="s">
         <v>1482</v>
       </c>
       <c r="B800" s="2" t="s">
@@ -16656,7 +16657,7 @@
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A801" s="2" t="s">
+      <c r="A801" s="4" t="s">
         <v>1483</v>
       </c>
       <c r="B801" s="2" t="s">
@@ -16670,7 +16671,7 @@
       </c>
     </row>
     <row r="802" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A802" s="2" t="s">
+      <c r="A802" s="4" t="s">
         <v>1483</v>
       </c>
       <c r="B802" s="2" t="s">
@@ -16684,7 +16685,7 @@
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A803" s="2" t="s">
+      <c r="A803" s="4" t="s">
         <v>1484</v>
       </c>
       <c r="B803" s="2" t="s">
@@ -16698,7 +16699,7 @@
       </c>
     </row>
     <row r="804" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A804" s="2" t="s">
+      <c r="A804" s="4" t="s">
         <v>1485</v>
       </c>
       <c r="B804" s="2" t="s">
@@ -16712,7 +16713,7 @@
       </c>
     </row>
     <row r="805" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A805" s="2" t="s">
+      <c r="A805" s="4" t="s">
         <v>1662</v>
       </c>
       <c r="B805" s="2" t="s">
@@ -16726,7 +16727,7 @@
       </c>
     </row>
     <row r="806" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A806" s="2" t="s">
+      <c r="A806" s="4" t="s">
         <v>1663</v>
       </c>
       <c r="B806" s="2" t="s">
@@ -16740,7 +16741,7 @@
       </c>
     </row>
     <row r="807" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A807" s="2" t="s">
+      <c r="A807" s="4" t="s">
         <v>1486</v>
       </c>
       <c r="B807" s="2" t="s">
@@ -16754,7 +16755,7 @@
       </c>
     </row>
     <row r="808" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A808" s="2" t="s">
+      <c r="A808" s="4" t="s">
         <v>1487</v>
       </c>
       <c r="B808" s="2" t="s">
@@ -16768,7 +16769,7 @@
       </c>
     </row>
     <row r="809" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A809" s="2" t="s">
+      <c r="A809" s="4" t="s">
         <v>1488</v>
       </c>
       <c r="B809" s="2" t="s">
@@ -16782,7 +16783,7 @@
       </c>
     </row>
     <row r="810" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A810" s="2" t="s">
+      <c r="A810" s="4" t="s">
         <v>1489</v>
       </c>
       <c r="B810" s="2" t="s">
@@ -16796,7 +16797,7 @@
       </c>
     </row>
     <row r="811" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A811" s="2" t="s">
+      <c r="A811" s="4" t="s">
         <v>1490</v>
       </c>
       <c r="B811" s="2" t="s">
@@ -16810,7 +16811,7 @@
       </c>
     </row>
     <row r="812" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A812" s="2" t="s">
+      <c r="A812" s="4" t="s">
         <v>1491</v>
       </c>
       <c r="B812" s="2" t="s">
@@ -16824,7 +16825,7 @@
       </c>
     </row>
     <row r="813" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A813" s="2" t="s">
+      <c r="A813" s="4" t="s">
         <v>1492</v>
       </c>
       <c r="B813" s="2" t="s">
@@ -16838,7 +16839,7 @@
       </c>
     </row>
     <row r="814" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A814" s="2" t="s">
+      <c r="A814" s="4" t="s">
         <v>1493</v>
       </c>
       <c r="B814" s="2" t="s">
@@ -16852,7 +16853,7 @@
       </c>
     </row>
     <row r="815" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A815" s="2" t="s">
+      <c r="A815" s="4" t="s">
         <v>1494</v>
       </c>
       <c r="B815" s="2" t="s">
@@ -16866,7 +16867,7 @@
       </c>
     </row>
     <row r="816" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A816" s="2" t="s">
+      <c r="A816" s="4" t="s">
         <v>1495</v>
       </c>
       <c r="B816" s="2" t="s">
@@ -16880,7 +16881,7 @@
       </c>
     </row>
     <row r="817" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A817" s="2" t="s">
+      <c r="A817" s="4" t="s">
         <v>1496</v>
       </c>
       <c r="B817" s="2" t="s">
@@ -16894,7 +16895,7 @@
       </c>
     </row>
     <row r="818" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A818" s="2" t="s">
+      <c r="A818" s="4" t="s">
         <v>1497</v>
       </c>
       <c r="B818" s="2" t="s">
@@ -16908,7 +16909,7 @@
       </c>
     </row>
     <row r="819" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A819" s="2" t="s">
+      <c r="A819" s="4" t="s">
         <v>1498</v>
       </c>
       <c r="B819" s="2" t="s">
@@ -16922,7 +16923,7 @@
       </c>
     </row>
     <row r="820" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A820" s="2" t="s">
+      <c r="A820" s="4" t="s">
         <v>1499</v>
       </c>
       <c r="B820" s="2" t="s">
@@ -16936,7 +16937,7 @@
       </c>
     </row>
     <row r="821" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A821" s="2" t="s">
+      <c r="A821" s="4" t="s">
         <v>1500</v>
       </c>
       <c r="B821" s="2" t="s">
@@ -16950,7 +16951,7 @@
       </c>
     </row>
     <row r="822" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A822" s="2" t="s">
+      <c r="A822" s="4" t="s">
         <v>1501</v>
       </c>
       <c r="B822" s="2" t="s">
@@ -16964,7 +16965,7 @@
       </c>
     </row>
     <row r="823" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A823" s="2" t="s">
+      <c r="A823" s="4" t="s">
         <v>1502</v>
       </c>
       <c r="B823" s="2" t="s">
@@ -16978,7 +16979,7 @@
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A824" s="2" t="s">
+      <c r="A824" s="4" t="s">
         <v>1503</v>
       </c>
       <c r="B824" s="2" t="s">
@@ -16992,7 +16993,7 @@
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A825" s="2" t="s">
+      <c r="A825" s="4" t="s">
         <v>1664</v>
       </c>
       <c r="B825" s="2" t="s">
@@ -17006,7 +17007,7 @@
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A826" s="2" t="s">
+      <c r="A826" s="4" t="s">
         <v>1665</v>
       </c>
       <c r="B826" s="2" t="s">
@@ -17020,7 +17021,7 @@
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A827" s="2" t="s">
+      <c r="A827" s="4" t="s">
         <v>1504</v>
       </c>
       <c r="B827" s="2" t="s">
@@ -17034,7 +17035,7 @@
       </c>
     </row>
     <row r="828" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A828" s="2" t="s">
+      <c r="A828" s="4" t="s">
         <v>1505</v>
       </c>
       <c r="B828" s="2" t="s">
@@ -17048,7 +17049,7 @@
       </c>
     </row>
     <row r="829" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A829" s="2" t="s">
+      <c r="A829" s="4" t="s">
         <v>1506</v>
       </c>
       <c r="B829" s="2" t="s">
@@ -17062,7 +17063,7 @@
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A830" s="2" t="s">
+      <c r="A830" s="4" t="s">
         <v>1507</v>
       </c>
       <c r="B830" s="2" t="s">
@@ -17076,7 +17077,7 @@
       </c>
     </row>
     <row r="831" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A831" s="2" t="s">
+      <c r="A831" s="4" t="s">
         <v>1220</v>
       </c>
       <c r="B831" s="5" t="s">
@@ -17090,7 +17091,7 @@
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A832" s="2" t="s">
+      <c r="A832" s="4" t="s">
         <v>1120</v>
       </c>
       <c r="B832" s="3" t="s">
@@ -17104,11 +17105,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D832">
-    <sortState ref="A2:D1781">
+  <autoFilter ref="A1:D832" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1781">
       <sortCondition ref="A1:A1781"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>